--- a/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
+++ b/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gluth/Arbeit/Conferences_Talks/PuG2024/PuG_2024_Booklet/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48346D5-E40B-024D-BB6F-44467ECC5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFDBAA6-28AF-D14F-87C2-C62D8688B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="34780" windowHeight="21900" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14739,9 +14739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB778129-3AB6-F845-A6EE-0C2E52353F3C}">
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomLeft" activeCell="M183" sqref="M183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21685,7 +21685,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="10" customFormat="1" ht="333" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" s="10" customFormat="1" ht="350" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>29</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="10" customFormat="1" ht="296" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" s="10" customFormat="1" ht="316" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>29</v>
       </c>

--- a/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
+++ b/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gluth/Arbeit/Conferences_Talks/PuG2024/PuG_2024_Booklet/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B76A81-B3B1-486F-946B-0FFC06EB6459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{461B5829-DBE0-4294-9E15-37651B86386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="663">
   <si>
     <t>Tag</t>
   </si>
@@ -4771,7 +4771,7 @@
     <t>Suddha Sourav</t>
   </si>
   <si>
-    <t>Helena Hartmann</t>
+    <t>Helena Hartmann, Julian Packheiser</t>
   </si>
   <si>
     <t xml:space="preserve">Our Posterblitz Symposium offers a stage for the early-career members. Here, innovative research projects by early-career scientists are presented to as broad a professional audience as possible. Specifically, each person gives a short "lightning-style" presentation, followed by a few minutes of questions. Among the submissions, we, the early-career members of the DGPA and the DGPs Division of Biological Psychology and Neuropsychology, will select the best abstracts which were submitted results-blind. Our evaluation criteria are: Report of effect sizes, clarity of presentation, study design, and theoretical derivation of hypotheses. We look forward to your exciting talks! </t>
@@ -4784,7 +4784,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4795,7 +4795,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4807,7 +4807,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4817,7 +4817,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4826,55 +4826,470 @@
     </r>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Nick Augustat</t>
+  </si>
+  <si>
+    <t>Philipps-Universität Marburg</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Thu-$$-Talk-$-$$$
-TBA
+In search of reward: Computational and neurophysiological assessment of treatment expectations in mood enhancement
 </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-TBA (1)
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Nick Augustat (1)
 (1) </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBA</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Philipps-Universität Marburg
+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Posterabstract.</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Anhedonia, a core symptom of depression, has been associated with aberrant reward processing capability, which presumably depends on striatal dopamine functioning. Recent studies have reported increased striatal dopamine levels and reward processing under high treatment expectations in Parkinson’s disease. Hence, we investigated if also a mood-enhancing placebo intervention in healthy controls, with the aim to alleviate anhedonia, might involve striatal dopamine signaling, thereby influencing reward processing.
+We hypothesized that high (vs. low) treatment expectations under placebo would increase reward processing by increasing striatal dopamine levels, and that a dopamine D2-antagonist vs. placebo would reduce reward processing by impeding striatal dopamine signaling.
+For this purpose, we experimentally manipulated striatal dopamine signaling with a dopamine D2-antagonist sulpiride (400mg) vs. placebo pills, and verbally induced high vs. low treatment expectations to N=297 healthy participants in a pre-registered study. All participants performed an established probabilistic selection task (PST; Frank task), which has been linked to striatal dopamine, while EEG was recorded. 
+Our PST has been adopted for electrocardiography with prolonged inter-trial intervals, thus underlying reinforcement learning (RL) processes might deviate from common assumptions. We therefore compared 48 RL models differing in updating structure and added components to accurately capture computational learning rates. Computationally approximated prediction error magnitudes were then correlated with P300 amplitudes serving as a neurophysiological marker for reward processing on a trial-by-trial basis.
+Exploratory analyses were performed to address whether computational learning rates were related to representational changes in multivariate EEG, and if both predict transitive performance in the PST.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sarah K. Danböck</t>
+  </si>
+  <si>
+    <t>Universität Mannheim</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+How-to study dissociative symptoms: A state-of-the-art overview
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Sarah K. Danböck (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Universität Mannheim
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Dissociation constitutes a transdiagnostic phenomenon not only characterizing dissociative disorders but also occurring across a broad range of psychiatric disorders like depression, psychosis, borderline personality disorder and posttraumatic stress disorder. In the latter disorders, moderate types of dissociative symptomatology like depersonalization, derealization, or gaps in awareness significantly burden patients’ wellbeing and functioning. Many efforts have been undertaken to better understand these debilitating symptoms. However, empirical findings have not yet converged in many areas (e.g., considering neurobiological correlates or effects of dissociative psychopathology on treatment outcome), which might partially be due to the heterogeneity and limitations of employed methodology. Here, we critically review the current state-of-the-art methodology in dissociation research, comparing methods to assess dissociation, provoke dissociation in the laboratory, select the participant sample, and consider critical sample characteristics. Discussing the informative value and limits of various common methodological approaches, we aim to provide information and nuanced guidance for methodological decisions. By these means we aim to raise and harmonize standards in dissociation research and enable researchers of all career stages to enter, navigate, and make a significant and lasting contribution to dissociation research, ultimately contributing to a better understanding of dissociative psychopathology.</t>
+    </r>
+  </si>
+  <si>
+    <t>Anne Saulin</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Würzburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+The (in)stability of incentivized prosocial behavior
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Anne Saulin (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Universitätsklinikum Würzburg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Monetary incentives are commonly used to shape individual behavior. In the realm of prosocial behavior, this means that individuals may receive money for behaving prosocially towards others. There is evidence that such incentives indeed increase the frequency of prosocial behavior. However, it remains unknown whether and for how long this prosocial behavior persists if the incentive is reduced or withdrawn. To test the stability of incentivized prosocial decisions, we conducted two online experiments (65 and 36 participants) and one fMRI experiment (55 participants; all preregistered https://osf.io/4uvqj/registrations,). In a first block (acquisition) of a social decision game, prosocial decisions were incentivized (80% probability of 20 cents reward for decisions in favor of the other person) and in the second block (extinction), these incentives stopped. Results showed that participants’ prosocial decisions increased during acquisition and declined during extinction. This decline was significantly less pronounced when people interacted with another person than when they interacted with a computer. Testing potential mechanisms, reinforcement learning drift-diffusion modelling (RLDDM) showed that when interacting with another person, prosocial decisions were more efficient (larger drift-rate parameter) and characterized by more reactive learning (larger learning rate) in the acquisition block than in the extinction block. When interacting with a computer, drift rates were also larger during acquisition than extinction but learning rates did not differ between blocks. Together with subsequent neural analyses, these preliminary findings provide first insights into neuro-behavioral mechanisms of the (in)stability of incentive based prosocial behavior.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jack Taylor</t>
+  </si>
+  <si>
+    <t>Goethe-Universität Frankfurt am Main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Optimal Transport explains the Representational Similarities between Letters: A pre-registered EEG Study
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jack Taylor (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Goethe-Universität Frankfurt am Main
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Orthographic processing is a core process during word recognition and reading. However, it remains unclear how letters are represented in the brain, and how to capture and describe this representational space. Theoretically informed approaches to the representation of letter orthography have previously focused on measures of overlap between representations of letters. More recent approaches infer similarities from deep learning models trained to recognise letters and words. Here, we adopted a novel approach, applying optimal transport: a well-established framework, commonly applied in areas such as statistics, physics, and economics, that deals with problems analogous to the efficient transportation of mass. We apply optimal transport to describe letter similarities as the degree of work required to transform one letter into another, in a manner that captures global shape and spatial relationships. In a preregistered EEG study (*N* = 15, based on simulations) using representational similarity analysis, we show that optimal transport distance can explain the representational similarity of letters in periods associated with visual and orthographic processing. We show that optimal transport outperforms descriptions that capture simple overlap (BF &gt; 1000), and that it has similar predictive power to deep learning models. We argue that the optimal transport framework can provide elegant and powerful descriptions of visual-orthographic similarity which align with neural representations of letters. It is far less computationally expensive than deep learning models, requires no training, and can provide computationally explicit results that are directly interpretable, supporting a more theory-driven investigation into visual and orthographic representations.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kim M. Sobania</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Neural Correlates of Fear Conditioning in Patients with Anxiety Disorders and OCD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Kim M. Sobania (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Universität Hamburg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fear learning processes are often considered underlying mechanisms in the development and maintenance of anxiety disorders. While adequate fear learning is essential for survival, these processes often exceed a functional level in anxiety and obsessive-compulsive disorder (OCD), resulting in suffering and impairment. To date, research examining neural correlates of fear conditioning in anxiety and OCD is limited.
+In the current study, we investigated the late positive potential (LPP), fear-potentiated startle data (FPS), and behavioral data (US-expectancy ratings) in a large transdiagnostic sample of participants with OCD (n=38), social phobia (n=39), specific phobia (n=40), and healthy controls (n=39). A differential fear generalization paradigm was employed, including a habituation, acquisition, generalization, and extinction phase. Geometrical forms were utilized, with one color consistently paired with aversive electrical stimulation (CS+), while another color remained unpaired (CS-). Three colors in between the CS+ and CS- served as generalization stimuli.
+Behavioral, LPP, and FPS data indicated a successful fear acquisition, which was generalized to the stimulus most similar in color to the CS+. Although a reduction for the CS+ was visible during extinction for behavioral and FPS data, it remained significantly higher compared to the CS-. For the LPP, no differences during extinction were found. However, results revealed no differences between any diagnostic groups.
+The present results suggest that both, behavioral and neural data, reflect fear learning. Nevertheless, the unexpected absence of differences between the groups suggests a necessity for further studies to elucidate the involved fear learning mechanisms among individuals with OCD and anxiety patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>Linn Petersdotter</t>
+  </si>
+  <si>
+    <t>Lund University</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Deciphering the impact of a trauma analogue - the roles of peritraumatic response, inhibitory control and memory reactivation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Linn Petersdotter (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lund University
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hitherto, it remains poorly understood why some trauma survivors develop post traumatic symptoms leading to mental health conditions while others do not. The aim of this study was to increase the understanding of which mechanisms may underlie variability in trauma related symptom development. Using a trauma-analogue film paradigm in a healthy sample (N = 33), we investigated how heartrate during trauma film exposure, individual inhibitory control capacity and the experienced impact of the trauma-analogue (IES) relate to intrusive memory development over the course of a week. Further, we tested the effect of trauma reminders on task performance in a 24-hour delayed cognitive control task. We found that lower inhibitory control and increased heartrate during trauma film exposure were related to both higher IES scores and intrusive memory frequencies. In a task with high cognitive control demands, negative trauma reminders led to significantly longer reaction latencies compared to their neutral counterparts while the opposite was true for negative non-reminders. To further understand the potential impact of subjective trauma experience, a median split into high and low IES scores was performed, showing that the effect of diminished cognitive control for negative trauma reminders was mainly driven by the highly impacted group. Our study extends previous research by providing deeper insights into how individual experiences of trauma-analogue exposure, heartrate, and the role of inhibitory control are related to the development of intrusive memories, and the resolution of cognitive interference when faced with trauma relevant reminders.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nicole Rheinheimer</t>
+  </si>
+  <si>
+    <t>Radboudumc Nijmegen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Associations of Infant Colic with Sleeping Problems from Childhood through Adolescence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nicole Rheinheimer (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Radboudumc Nijmegen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Colic is characterized by high levels of unsoothable crying for more than three hours daily, peaking around six weeks postpartum. Studies suggest a high prevalence of sleeping problems in colicky infants with problems reaching up to 10 years of age. Many of the previous studies, however, relied on unstandardized and retrospective maternal recall, and no studies to date have followed colicky infants beyond the age of 10. Therefore, the aim of this study is to investigate the association of infant colic with reported sleeping problems from 2.5 until 16 years of age, as well as polysomnography at age 16. In this longitudinal study on a community sample, colic was diagnosed using prospective cry-diaries, filled in by the mothers for 4 days at age 6 weeks. Sleeping problems were assessed using maternal report at ages 2.5, 6 and 10 years, and child self-report at ages 12.5, 14 and 16 years. At age 16, 7 days of polysomnography data were collected using EEG wearables at home (Hypnodyne Corp., Sofia, Bulgaria). The research data is currently being analyzed and results will be presented at the conference.</t>
+    </r>
+  </si>
+  <si>
+    <t>Leon Kroczek</t>
+  </si>
+  <si>
+    <t>Universität Regensburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Communicative social intentions modulate emotional mimicry responses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Leon Kroczek (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Universität Regensburg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The coordinated exchange of facial expressions is an important part of face-to-face social interactions. Previous research has shown that sending a facial emotional expression influences the evaluation of response expressions, but it remains unclear whether this effect is driven by the display of the facial expression or rather by the communicative intention. In a preregistered experiment, 68 participants were asked to send an emoji (smiley, neutral, frowny) via a computer display to a virtual agent in front of them, whereupon the agent reacted with either a smiling or frowning facial expression. Mimicry responses were measured via facial EMG of the Zygomaticus and Corrugator muscle following the agent’s response. In addition, valence and arousal ratings were obtained after the interactive exchange. The results show that being smiled at is more pleasant and elicits greater Zygomaticus activation when the smile is received as a response to a smile emoji compared to a neutral or frown emoji. Interestingly, a mirrored pattern but with a smaller effect size was observed when participants were being frowned at, i.e. an agent’s frown was less pleasant and elicited greater Corrugator activation when it followed a smile emoji compared to a frown emoji. The results demonstrate that communicative intentions are sufficient to change the evaluation of facial response expressions of an interactive partner and that persons are sensitive to the congruency in emotional signals between sender and receiver. Using a minimal social interaction paradigm, the present study highlights interactive mechanisms in the evaluation of facial emotions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Roman Kessler</t>
+  </si>
+  <si>
+    <t>Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Is EEG better left alone for decoding?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Roman Kessler (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Multiverse preprocessing has revealed the effect of single data preprocessing choices on ERP amplitude or latency. In multiverse approaches, pipelines are systematically varied, and downstream analyses are compared between forking paths (i.e., universes), providing insights into stability, generalizability, and the impact of researchers’ degrees of freedom on analysis outcomes. One particular use case is EEG decoding which exploits the multidimensionality of the data corresponding to specific cognitive processes to provide insight into how neural representations of categories differ or evolve over time.
+The objective of this study is to investigate the effect of preprocessing choices on the performance of decoding algorithms using multiverse preprocessing. The open ERPCORE dataset comprising different experiments was analyzed (ERN, LRP, MMN, N170, N2pc, N400, P3). We systematically varied each preprocessing step, including filtering, re-referencing, eye/muscle artifact correction, interpolations, and epoching. Decoding was performed based on each universe, either trial-wise using deep neural networks or time-resolved using logistic regression. 
+The results indicate that there are systematic but small performance differences between universes when using neural networks. This suggests that their filters are successfully learned independent of the preprocessing. However, for time-resolved decoding, performance differences were larger, with stringent filtering being the most important for achieving high decoding performance. Additionally, most artifact correction steps rather decreased decoding performance in both model types.
+The present study suggests that EEG preprocessing steps, beyond filtering, can reduce model accuracy. Additionally, our work suggests that the impact of preprocessing steps heavily depends on the decoding algorithm, as well as the experiment.</t>
     </r>
   </si>
   <si>
@@ -14370,32 +14785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
@@ -14444,6 +14833,28 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14480,7 +14891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -14557,9 +14968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -14569,9 +14977,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14894,8 +15310,8 @@
   <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M181" sqref="M181"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -16965,7 +17381,7 @@
       <c r="L55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="26" t="s">
+      <c r="M55" s="31" t="s">
         <v>204</v>
       </c>
       <c r="N55" s="19"/>
@@ -16995,7 +17411,7 @@
       <c r="H56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="33" t="s">
         <v>205</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -17004,11 +17420,11 @@
       <c r="K56" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56" s="3" t="s">
+      <c r="L56" t="s">
         <v>206</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="N56" s="19"/>
     </row>
@@ -17037,8 +17453,8 @@
       <c r="H57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>205</v>
+      <c r="I57" s="30" t="s">
+        <v>208</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>201</v>
@@ -17047,10 +17463,10 @@
         <v>202</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="N57" s="19"/>
     </row>
@@ -17079,8 +17495,8 @@
       <c r="H58" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>205</v>
+      <c r="I58" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>201</v>
@@ -17089,10 +17505,10 @@
         <v>202</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="N58" s="19"/>
     </row>
@@ -17121,8 +17537,8 @@
       <c r="H59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>205</v>
+      <c r="I59" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>201</v>
@@ -17131,10 +17547,10 @@
         <v>202</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="N59" s="19"/>
     </row>
@@ -17163,8 +17579,8 @@
       <c r="H60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>205</v>
+      <c r="I60" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>201</v>
@@ -17173,10 +17589,10 @@
         <v>202</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="N60" s="19"/>
     </row>
@@ -17205,8 +17621,8 @@
       <c r="H61" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>205</v>
+      <c r="I61" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>201</v>
@@ -17215,10 +17631,10 @@
         <v>202</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="N61" s="19"/>
     </row>
@@ -17247,8 +17663,8 @@
       <c r="H62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>205</v>
+      <c r="I62" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>201</v>
@@ -17256,11 +17672,11 @@
       <c r="K62" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>206</v>
+      <c r="L62" t="s">
+        <v>223</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="N62" s="19"/>
     </row>
@@ -17289,8 +17705,8 @@
       <c r="H63" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>205</v>
+      <c r="I63" s="30" t="s">
+        <v>225</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>201</v>
@@ -17299,10 +17715,10 @@
         <v>202</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="N63" s="19"/>
     </row>
@@ -17331,8 +17747,8 @@
       <c r="H64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>205</v>
+      <c r="I64" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>201</v>
@@ -17340,11 +17756,11 @@
       <c r="K64" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>206</v>
+      <c r="L64" t="s">
+        <v>229</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="N64" s="19"/>
     </row>
@@ -17353,7 +17769,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C65" s="6">
         <v>0.61458333333333337</v>
@@ -17371,22 +17787,22 @@
         <v>79</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="409.6">
@@ -17394,7 +17810,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C66" s="6">
         <v>0.61458333333333337</v>
@@ -17412,22 +17828,22 @@
         <v>79</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="409.6">
@@ -17435,7 +17851,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C67" s="6">
         <v>0.61458333333333337</v>
@@ -17453,22 +17869,22 @@
         <v>79</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="409.6">
@@ -17476,7 +17892,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C68" s="6">
         <v>0.61458333333333337</v>
@@ -17494,22 +17910,22 @@
         <v>79</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="409.6">
@@ -17517,7 +17933,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C69" s="6">
         <v>0.61458333333333337</v>
@@ -17531,20 +17947,20 @@
       <c r="F69" s="6">
         <v>0.625</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G69" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="409.6">
@@ -17552,7 +17968,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C70" s="6">
         <v>0.61458333333333337</v>
@@ -17566,26 +17982,26 @@
       <c r="F70" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="409.6">
@@ -17593,7 +18009,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C71" s="6">
         <v>0.61458333333333337</v>
@@ -17607,26 +18023,26 @@
       <c r="F71" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="409.6">
@@ -17634,7 +18050,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C72" s="6">
         <v>0.61458333333333337</v>
@@ -17648,26 +18064,26 @@
       <c r="F72" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="409.6">
@@ -17675,7 +18091,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C73" s="6">
         <v>0.61458333333333337</v>
@@ -17693,22 +18109,22 @@
         <v>42</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -17716,7 +18132,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C74" s="6">
         <v>0.61458333333333337</v>
@@ -17734,22 +18150,22 @@
         <v>59</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -17757,7 +18173,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C75" s="6">
         <v>0.61458333333333337</v>
@@ -17775,22 +18191,22 @@
         <v>59</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -17798,7 +18214,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C76" s="6">
         <v>0.61458333333333337</v>
@@ -17816,22 +18232,22 @@
         <v>59</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -17839,7 +18255,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C77" s="6">
         <v>0.61458333333333337</v>
@@ -17857,22 +18273,22 @@
         <v>59</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -17880,7 +18296,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C78" s="6">
         <v>0.61458333333333337</v>
@@ -17898,22 +18314,22 @@
         <v>59</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="409.6">
@@ -17921,7 +18337,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C79" s="6">
         <v>0.61458333333333337</v>
@@ -17939,19 +18355,19 @@
         <v>99</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="409.6">
@@ -17959,7 +18375,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C80" s="6">
         <v>0.61458333333333337</v>
@@ -17977,19 +18393,19 @@
         <v>99</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="409.6">
@@ -17997,7 +18413,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C81" s="6">
         <v>0.61458333333333337</v>
@@ -18015,19 +18431,19 @@
         <v>99</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="409.6">
@@ -18035,7 +18451,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C82" s="6">
         <v>0.61458333333333337</v>
@@ -18053,19 +18469,19 @@
         <v>99</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="409.6">
@@ -18073,7 +18489,7 @@
         <v>18</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C83" s="6">
         <v>0.61458333333333337</v>
@@ -18091,19 +18507,19 @@
         <v>99</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -18111,7 +18527,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C84" s="6">
         <v>0.61458333333333337</v>
@@ -18126,25 +18542,25 @@
         <v>0.625</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -18152,7 +18568,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C85" s="6">
         <v>0.61458333333333337</v>
@@ -18167,25 +18583,25 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -18193,7 +18609,7 @@
         <v>18</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C86" s="6">
         <v>0.61458333333333337</v>
@@ -18208,25 +18624,25 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -18234,7 +18650,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C87" s="6">
         <v>0.61458333333333337</v>
@@ -18249,25 +18665,25 @@
         <v>0.65625</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:13" s="10" customFormat="1" ht="409.6">
@@ -18275,7 +18691,7 @@
         <v>18</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C88" s="6">
         <v>0.61458333333333337</v>
@@ -18290,25 +18706,25 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="10" customFormat="1">
@@ -18316,7 +18732,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C89" s="6">
         <v>0.67708333333333337</v>
@@ -18337,7 +18753,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="C90" s="6">
         <v>0.69791666666666663</v>
@@ -18358,7 +18774,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="C91" s="24">
         <v>0.77083333333333337</v>
@@ -18376,7 +18792,7 @@
         <v>18</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C92" s="24">
         <v>0.8125</v>
@@ -18391,10 +18807,10 @@
     </row>
     <row r="93" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A93" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C93" s="6">
         <v>0.375</v>
@@ -18412,30 +18828,30 @@
         <v>22</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A94" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C94" s="6">
         <v>0.375</v>
@@ -18453,30 +18869,30 @@
         <v>22</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A95" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C95" s="6">
         <v>0.375</v>
@@ -18494,30 +18910,30 @@
         <v>22</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A96" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C96" s="6">
         <v>0.375</v>
@@ -18535,30 +18951,30 @@
         <v>22</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A97" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C97" s="6">
         <v>0.375</v>
@@ -18576,30 +18992,30 @@
         <v>22</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="409.6">
       <c r="A98" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="C98" s="6">
         <v>0.375</v>
@@ -18617,30 +19033,30 @@
         <v>42</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="409.6">
       <c r="A99" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="C99" s="6">
         <v>0.375</v>
@@ -18658,30 +19074,30 @@
         <v>42</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="409.6">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="C100" s="6">
         <v>0.375</v>
@@ -18699,30 +19115,30 @@
         <v>42</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="409.6">
       <c r="A101" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="C101" s="6">
         <v>0.375</v>
@@ -18740,30 +19156,30 @@
         <v>42</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A102" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C102" s="6">
         <v>0.375</v>
@@ -18781,30 +19197,30 @@
         <v>99</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A103" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C103" s="6">
         <v>0.375</v>
@@ -18822,30 +19238,30 @@
         <v>99</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A104" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C104" s="6">
         <v>0.375</v>
@@ -18863,30 +19279,30 @@
         <v>99</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A105" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C105" s="6">
         <v>0.375</v>
@@ -18904,30 +19320,30 @@
         <v>99</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="409.6">
       <c r="A106" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C106" s="24">
         <v>0.375</v>
@@ -18945,30 +19361,30 @@
         <v>59</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>170</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="409.6">
       <c r="A107" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C107" s="24">
         <v>0.375</v>
@@ -18986,30 +19402,30 @@
         <v>59</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="409.6">
       <c r="A108" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C108" s="24">
         <v>0.375</v>
@@ -19027,30 +19443,30 @@
         <v>59</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>170</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="409.6">
       <c r="A109" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C109" s="24">
         <v>0.375</v>
@@ -19068,30 +19484,30 @@
         <v>59</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="409.6">
       <c r="A110" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C110" s="24">
         <v>0.375</v>
@@ -19109,30 +19525,30 @@
         <v>59</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="219" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C111" s="6">
         <v>0.375</v>
@@ -19150,30 +19566,30 @@
         <v>79</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="219" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C112" s="6">
         <v>0.375</v>
@@ -19191,30 +19607,30 @@
         <v>79</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="219" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C113" s="6">
         <v>0.375</v>
@@ -19232,30 +19648,30 @@
         <v>79</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="219" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C114" s="6">
         <v>0.375</v>
@@ -19273,30 +19689,30 @@
         <v>79</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C115" s="6">
         <v>0.4375</v>
@@ -19308,10 +19724,10 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C116" s="6">
         <v>0.4375</v>
@@ -19323,10 +19739,10 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="C117" s="6">
         <v>0.45833333333333331</v>
@@ -19338,7 +19754,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>114</v>
@@ -19352,10 +19768,10 @@
     </row>
     <row r="119" spans="1:13" ht="409.6">
       <c r="A119" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C119" s="6">
         <v>0.53125</v>
@@ -19373,30 +19789,30 @@
         <v>42</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="409.6">
       <c r="A120" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C120" s="6">
         <v>0.53125</v>
@@ -19414,30 +19830,30 @@
         <v>42</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="409.6">
       <c r="A121" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C121" s="6">
         <v>0.53125</v>
@@ -19455,30 +19871,30 @@
         <v>42</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="409.6">
       <c r="A122" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C122" s="6">
         <v>0.53125</v>
@@ -19496,30 +19912,30 @@
         <v>42</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="409.6">
       <c r="A123" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C123" s="6">
         <v>0.53125</v>
@@ -19537,30 +19953,30 @@
         <v>42</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="201.95" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C124" s="6">
         <v>0.53125</v>
@@ -19578,30 +19994,30 @@
         <v>22</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="201.95" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C125" s="6">
         <v>0.53125</v>
@@ -19619,30 +20035,30 @@
         <v>22</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="201.95" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C126" s="6">
         <v>0.53125</v>
@@ -19660,30 +20076,30 @@
         <v>22</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="201.95" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C127" s="6">
         <v>0.53125</v>
@@ -19701,30 +20117,30 @@
         <v>22</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="201.95" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C128" s="6">
         <v>0.53125</v>
@@ -19742,30 +20158,30 @@
         <v>22</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A129" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C129" s="6">
         <v>0.53125</v>
@@ -19783,30 +20199,30 @@
         <v>99</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A130" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C130" s="6">
         <v>0.53125</v>
@@ -19824,30 +20240,30 @@
         <v>99</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C131" s="6">
         <v>0.53125</v>
@@ -19865,30 +20281,30 @@
         <v>99</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C132" s="6">
         <v>0.53125</v>
@@ -19906,30 +20322,30 @@
         <v>99</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A133" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C133" s="6">
         <v>0.53125</v>
@@ -19947,30 +20363,30 @@
         <v>99</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="409.6">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C134" s="6">
         <v>0.53125</v>
@@ -19988,30 +20404,30 @@
         <v>79</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="409.6">
       <c r="A135" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C135" s="6">
         <v>0.53125</v>
@@ -20029,30 +20445,30 @@
         <v>79</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="409.6">
       <c r="A136" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C136" s="6">
         <v>0.53125</v>
@@ -20070,30 +20486,30 @@
         <v>79</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="409.6">
       <c r="A137" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C137" s="6">
         <v>0.53125</v>
@@ -20111,30 +20527,30 @@
         <v>79</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="409.6">
       <c r="A138" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C138" s="6">
         <v>0.53125</v>
@@ -20152,30 +20568,30 @@
         <v>79</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A139" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C139" s="6">
         <v>0.53125</v>
@@ -20193,30 +20609,30 @@
         <v>59</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A140" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C140" s="6">
         <v>0.53125</v>
@@ -20234,30 +20650,30 @@
         <v>59</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C141" s="6">
         <v>0.53125</v>
@@ -20275,30 +20691,30 @@
         <v>59</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A142" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C142" s="6">
         <v>0.53125</v>
@@ -20316,30 +20732,30 @@
         <v>59</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C143" s="6">
         <v>0.53125</v>
@@ -20357,30 +20773,30 @@
         <v>59</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="409.6">
       <c r="A146" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C146" s="11">
         <v>0.60416666666666663</v>
@@ -20398,30 +20814,30 @@
         <v>22</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="409.6">
       <c r="A147" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C147" s="11">
         <v>0.60416666666666663</v>
@@ -20439,30 +20855,30 @@
         <v>22</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="409.6">
       <c r="A148" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C148" s="11">
         <v>0.60416666666666663</v>
@@ -20480,30 +20896,30 @@
         <v>22</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="409.6">
       <c r="A149" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C149" s="11">
         <v>0.60416666666666663</v>
@@ -20521,30 +20937,30 @@
         <v>22</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="409.6">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C150" s="11">
         <v>0.60416666666666663</v>
@@ -20562,30 +20978,30 @@
         <v>22</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="151" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A151" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C151" s="11">
         <v>0.60416666666666663</v>
@@ -20603,30 +21019,30 @@
         <v>59</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="K151" s="14" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A152" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C152" s="11">
         <v>0.60416666666666663</v>
@@ -20644,30 +21060,30 @@
         <v>59</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="K152" s="14" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A153" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C153" s="11">
         <v>0.60416666666666663</v>
@@ -20685,30 +21101,30 @@
         <v>59</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="K153" s="14" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A154" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C154" s="11">
         <v>0.60416666666666663</v>
@@ -20726,30 +21142,30 @@
         <v>59</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="155" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A155" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C155" s="11">
         <v>0.60416666666666663</v>
@@ -20767,30 +21183,30 @@
         <v>99</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A156" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C156" s="11">
         <v>0.60416666666666663</v>
@@ -20808,30 +21224,30 @@
         <v>99</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
     </row>
     <row r="157" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A157" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C157" s="11">
         <v>0.60416666666666663</v>
@@ -20849,30 +21265,30 @@
         <v>99</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="158" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A158" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C158" s="11">
         <v>0.60416666666666663</v>
@@ -20890,30 +21306,30 @@
         <v>99</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A159" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C159" s="11">
         <v>0.60416666666666663</v>
@@ -20931,30 +21347,30 @@
         <v>99</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A160" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C160" s="11">
         <v>0.60416666666666663</v>
@@ -20972,30 +21388,30 @@
         <v>42</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L160" s="10" t="s">
         <v>170</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A161" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C161" s="11">
         <v>0.60416666666666663</v>
@@ -21013,30 +21429,30 @@
         <v>42</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A162" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C162" s="11">
         <v>0.60416666666666663</v>
@@ -21054,30 +21470,30 @@
         <v>42</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L162" s="10" t="s">
         <v>170</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A163" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C163" s="11">
         <v>0.60416666666666663</v>
@@ -21095,30 +21511,30 @@
         <v>42</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A164" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C164" s="11">
         <v>0.60416666666666663</v>
@@ -21136,30 +21552,30 @@
         <v>42</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A165" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C165" s="11">
         <v>0.60416666666666663</v>
@@ -21177,30 +21593,30 @@
         <v>79</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A166" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C166" s="11">
         <v>0.60416666666666663</v>
@@ -21218,30 +21634,30 @@
         <v>79</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="J166" s="14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K166" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A167" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C167" s="11">
         <v>0.60416666666666663</v>
@@ -21259,30 +21675,30 @@
         <v>79</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K167" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L167" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A168" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C168" s="11">
         <v>0.60416666666666663</v>
@@ -21300,30 +21716,30 @@
         <v>79</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K168" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L168" s="10" t="s">
         <v>110</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A169" s="10" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C169" s="11">
         <v>0.60416666666666663</v>
@@ -21341,30 +21757,30 @@
         <v>79</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K169" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="M169" s="14" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C170" s="6">
         <v>0.66666666666666663</v>
@@ -21376,10 +21792,10 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="C171" s="6">
         <v>0.6875</v>
@@ -21391,25 +21807,25 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="C172" s="1">
         <v>19</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="K172" s="3"/>
     </row>
     <row r="173" spans="1:13" ht="409.6">
       <c r="A173" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C173" s="6">
         <v>0.375</v>
@@ -21427,30 +21843,30 @@
         <v>99</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="409.6">
       <c r="A174" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C174" s="6">
         <v>0.375</v>
@@ -21468,30 +21884,30 @@
         <v>99</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="409.6">
       <c r="A175" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C175" s="6">
         <v>0.375</v>
@@ -21509,30 +21925,30 @@
         <v>99</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="409.6">
       <c r="A176" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C176" s="6">
         <v>0.375</v>
@@ -21550,30 +21966,30 @@
         <v>99</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="409.6">
       <c r="A177" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C177" s="6">
         <v>0.375</v>
@@ -21591,30 +22007,30 @@
         <v>42</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="409.6">
       <c r="A178" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C178" s="6">
         <v>0.375</v>
@@ -21632,30 +22048,30 @@
         <v>42</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="409.6">
       <c r="A179" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C179" s="6">
         <v>0.375</v>
@@ -21673,30 +22089,30 @@
         <v>42</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="409.6">
       <c r="A180" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C180" s="6">
         <v>0.375</v>
@@ -21714,30 +22130,30 @@
         <v>42</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
     </row>
     <row r="181" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A181" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C181" s="6">
         <v>0.375</v>
@@ -21755,30 +22171,30 @@
         <v>79</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="I181" s="28" t="s">
-        <v>591</v>
+        <v>614</v>
+      </c>
+      <c r="I181" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K181" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="L181" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="M181" s="29" t="s">
-        <v>595</v>
+        <v>617</v>
+      </c>
+      <c r="L181" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="M181" s="28" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="182" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A182" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C182" s="6">
         <v>0.375</v>
@@ -21796,30 +22212,30 @@
         <v>79</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="I182" s="28" t="s">
-        <v>596</v>
+        <v>614</v>
+      </c>
+      <c r="I182" s="27" t="s">
+        <v>620</v>
       </c>
       <c r="J182" s="14" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K182" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="L182" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="M182" s="29" t="s">
-        <v>598</v>
+        <v>617</v>
+      </c>
+      <c r="L182" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="M182" s="28" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="183" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A183" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C183" s="6">
         <v>0.375</v>
@@ -21837,30 +22253,30 @@
         <v>79</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="I183" s="28" t="s">
-        <v>599</v>
+        <v>614</v>
+      </c>
+      <c r="I183" s="27" t="s">
+        <v>623</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K183" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="L183" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="M183" s="30" t="s">
-        <v>601</v>
+        <v>617</v>
+      </c>
+      <c r="L183" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="M183" s="29" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C184" s="6">
         <v>0.375</v>
@@ -21878,30 +22294,30 @@
         <v>79</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="I184" s="28" t="s">
-        <v>602</v>
+        <v>614</v>
+      </c>
+      <c r="I184" s="27" t="s">
+        <v>626</v>
       </c>
       <c r="J184" s="14" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K184" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="L184" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="M184" s="30" t="s">
-        <v>603</v>
+        <v>617</v>
+      </c>
+      <c r="L184" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="M184" s="29" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A185" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C185" s="6">
         <v>0.375</v>
@@ -21919,30 +22335,30 @@
         <v>59</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K185" s="14" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="M185" s="14" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A186" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C186" s="6">
         <v>0.375</v>
@@ -21960,30 +22376,30 @@
         <v>59</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K186" s="14" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L186" s="10" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="M186" s="14" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A187" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C187" s="6">
         <v>0.375</v>
@@ -22001,30 +22417,30 @@
         <v>59</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K187" s="14" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="M187" s="14" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A188" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C188" s="6">
         <v>0.375</v>
@@ -22042,30 +22458,30 @@
         <v>59</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="J188" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K188" s="14" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L188" s="10" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A189" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C189" s="6">
         <v>0.375</v>
@@ -22083,30 +22499,30 @@
         <v>59</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="J189" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K189" s="14" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="M189" s="14" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A190" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C190" s="6">
         <v>0.375</v>
@@ -22124,30 +22540,30 @@
         <v>22</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A191" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C191" s="6">
         <v>0.375</v>
@@ -22165,30 +22581,30 @@
         <v>22</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
     </row>
     <row r="192" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A192" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C192" s="6">
         <v>0.375</v>
@@ -22206,30 +22622,30 @@
         <v>22</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="10" customFormat="1" ht="409.6">
       <c r="A193" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C193" s="6">
         <v>0.375</v>
@@ -22247,30 +22663,30 @@
         <v>22</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C194" s="6">
         <v>0.4375</v>
@@ -22282,10 +22698,10 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C195" s="6">
         <v>0.44791666666666669</v>
@@ -22296,10 +22712,10 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="C196" s="6">
         <v>0.5</v>
@@ -22310,10 +22726,10 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="C197" s="6">
         <v>0.54166666666666663</v>

--- a/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
+++ b/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gluth/Arbeit/Conferences_Talks/PuG2024/PuG_2024_Booklet/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461B5829-DBE0-4294-9E15-37651B86386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8410A1EC-C8B2-4D39-A034-DEC45008A143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
   </bookViews>
@@ -4836,7 +4836,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Thu-$$-Talk-$-$$$
@@ -4846,7 +4846,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -4857,7 +4857,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Philipps-Universität Marburg
@@ -4866,7 +4866,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -4888,7 +4888,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Thu-$$-Talk-$-$$$
@@ -4898,7 +4898,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -4909,7 +4909,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Universität Mannheim
@@ -4918,7 +4918,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -4936,7 +4936,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4947,7 +4947,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4959,7 +4959,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4969,7 +4969,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4988,7 +4988,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -4999,7 +4999,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5011,7 +5011,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5021,7 +5021,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5030,6 +5030,217 @@
     </r>
   </si>
   <si>
+    <t>Roman Kessler</t>
+  </si>
+  <si>
+    <t>Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Is EEG better left alone for decoding?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Roman Kessler (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Multiverse preprocessing has revealed the effect of single data preprocessing choices on ERP amplitude or latency. In multiverse approaches, pipelines are systematically varied, and downstream analyses are compared between forking paths (i.e., universes), providing insights into stability, generalizability, and the impact of researchers’ degrees of freedom on analysis outcomes. One particular use case is EEG decoding which exploits the multidimensionality of the data corresponding to specific cognitive processes to provide insight into how neural representations of categories differ or evolve over time.
+The objective of this study is to investigate the effect of preprocessing choices on the performance of decoding algorithms using multiverse preprocessing. The open ERPCORE dataset comprising different experiments was analyzed (ERN, LRP, MMN, N170, N2pc, N400, P3). We systematically varied each preprocessing step, including filtering, re-referencing, eye/muscle artifact correction, interpolations, and epoching. Decoding was performed based on each universe, either trial-wise using deep neural networks or time-resolved using logistic regression. 
+The results indicate that there are systematic but small performance differences between universes when using neural networks. This suggests that their filters are successfully learned independent of the preprocessing. However, for time-resolved decoding, performance differences were larger, with stringent filtering being the most important for achieving high decoding performance. Additionally, most artifact correction steps rather decreased decoding performance in both model types.
+The present study suggests that EEG preprocessing steps, beyond filtering, can reduce model accuracy. Additionally, our work suggests that the impact of preprocessing steps heavily depends on the decoding algorithm, as well as the experiment.</t>
+    </r>
+  </si>
+  <si>
+    <t>Linn Petersdotter</t>
+  </si>
+  <si>
+    <t>Lund University</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Deciphering the impact of a trauma analogue - the roles of peritraumatic response, inhibitory control and memory reactivation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Linn Petersdotter (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lund University
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hitherto, it remains poorly understood why some trauma survivors develop post traumatic symptoms leading to mental health conditions while others do not. The aim of this study was to increase the understanding of which mechanisms may underlie variability in trauma related symptom development. Using a trauma-analogue film paradigm in a healthy sample (N = 33), we investigated how heartrate during trauma film exposure, individual inhibitory control capacity and the experienced impact of the trauma-analogue (IES) relate to intrusive memory development over the course of a week. Further, we tested the effect of trauma reminders on task performance in a 24-hour delayed cognitive control task. We found that lower inhibitory control and increased heartrate during trauma film exposure were related to both higher IES scores and intrusive memory frequencies. In a task with high cognitive control demands, negative trauma reminders led to significantly longer reaction latencies compared to their neutral counterparts while the opposite was true for negative non-reminders. To further understand the potential impact of subjective trauma experience, a median split into high and low IES scores was performed, showing that the effect of diminished cognitive control for negative trauma reminders was mainly driven by the highly impacted group. Our study extends previous research by providing deeper insights into how individual experiences of trauma-analogue exposure, heartrate, and the role of inhibitory control are related to the development of intrusive memories, and the resolution of cognitive interference when faced with trauma relevant reminders.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nicole Rheinheimer</t>
+  </si>
+  <si>
+    <t>Radboudumc Nijmegen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Associations of Infant Colic with Sleeping Problems from Childhood through Adolescence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nicole Rheinheimer (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Radboudumc Nijmegen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Colic is characterized by high levels of unsoothable crying for more than three hours daily, peaking around six weeks postpartum. Studies suggest a high prevalence of sleeping problems in colicky infants with problems reaching up to 10 years of age. Many of the previous studies, however, relied on unstandardized and retrospective maternal recall, and no studies to date have followed colicky infants beyond the age of 10. Therefore, the aim of this study is to investigate the association of infant colic with reported sleeping problems from 2.5 until 16 years of age, as well as polysomnography at age 16. In this longitudinal study on a community sample, colic was diagnosed using prospective cry-diaries, filled in by the mothers for 4 days at age 6 weeks. Sleeping problems were assessed using maternal report at ages 2.5, 6 and 10 years, and child self-report at ages 12.5, 14 and 16 years. At age 16, 7 days of polysomnography data were collected using EEG wearables at home (Hypnodyne Corp., Sofia, Bulgaria). The research data is currently being analyzed and results will be presented at the conference.</t>
+    </r>
+  </si>
+  <si>
+    <t>Leon Kroczek</t>
+  </si>
+  <si>
+    <t>Universität Regensburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thu-$$-Talk-$-$$$
+Communicative social intentions modulate emotional mimicry responses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Leon Kroczek (1)
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Universität Regensburg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The coordinated exchange of facial expressions is an important part of face-to-face social interactions. Previous research has shown that sending a facial emotional expression influences the evaluation of response expressions, but it remains unclear whether this effect is driven by the display of the facial expression or rather by the communicative intention. In a preregistered experiment, 68 participants were asked to send an emoji (smiley, neutral, frowny) via a computer display to a virtual agent in front of them, whereupon the agent reacted with either a smiling or frowning facial expression. Mimicry responses were measured via facial EMG of the Zygomaticus and Corrugator muscle following the agent’s response. In addition, valence and arousal ratings were obtained after the interactive exchange. The results show that being smiled at is more pleasant and elicits greater Zygomaticus activation when the smile is received as a response to a smile emoji compared to a neutral or frown emoji. Interestingly, a mirrored pattern but with a smaller effect size was observed when participants were being frowned at, i.e. an agent’s frown was less pleasant and elicited greater Corrugator activation when it followed a smile emoji compared to a frown emoji. The results demonstrate that communicative intentions are sufficient to change the evaluation of facial response expressions of an interactive partner and that persons are sensitive to the congruency in emotional signals between sender and receiver. Using a minimal social interaction paradigm, the present study highlights interactive mechanisms in the evaluation of facial emotions.</t>
+    </r>
+  </si>
+  <si>
     <t>Kim M. Sobania</t>
   </si>
   <si>
@@ -5037,7 +5248,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5048,7 +5259,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5271,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5070,7 +5281,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -5079,217 +5290,6 @@
 In the current study, we investigated the late positive potential (LPP), fear-potentiated startle data (FPS), and behavioral data (US-expectancy ratings) in a large transdiagnostic sample of participants with OCD (n=38), social phobia (n=39), specific phobia (n=40), and healthy controls (n=39). A differential fear generalization paradigm was employed, including a habituation, acquisition, generalization, and extinction phase. Geometrical forms were utilized, with one color consistently paired with aversive electrical stimulation (CS+), while another color remained unpaired (CS-). Three colors in between the CS+ and CS- served as generalization stimuli.
 Behavioral, LPP, and FPS data indicated a successful fear acquisition, which was generalized to the stimulus most similar in color to the CS+. Although a reduction for the CS+ was visible during extinction for behavioral and FPS data, it remained significantly higher compared to the CS-. For the LPP, no differences during extinction were found. However, results revealed no differences between any diagnostic groups.
 The present results suggest that both, behavioral and neural data, reflect fear learning. Nevertheless, the unexpected absence of differences between the groups suggests a necessity for further studies to elucidate the involved fear learning mechanisms among individuals with OCD and anxiety patients.</t>
-    </r>
-  </si>
-  <si>
-    <t>Linn Petersdotter</t>
-  </si>
-  <si>
-    <t>Lund University</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thu-$$-Talk-$-$$$
-Deciphering the impact of a trauma analogue - the roles of peritraumatic response, inhibitory control and memory reactivation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Linn Petersdotter (1)
-(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lund University
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Hitherto, it remains poorly understood why some trauma survivors develop post traumatic symptoms leading to mental health conditions while others do not. The aim of this study was to increase the understanding of which mechanisms may underlie variability in trauma related symptom development. Using a trauma-analogue film paradigm in a healthy sample (N = 33), we investigated how heartrate during trauma film exposure, individual inhibitory control capacity and the experienced impact of the trauma-analogue (IES) relate to intrusive memory development over the course of a week. Further, we tested the effect of trauma reminders on task performance in a 24-hour delayed cognitive control task. We found that lower inhibitory control and increased heartrate during trauma film exposure were related to both higher IES scores and intrusive memory frequencies. In a task with high cognitive control demands, negative trauma reminders led to significantly longer reaction latencies compared to their neutral counterparts while the opposite was true for negative non-reminders. To further understand the potential impact of subjective trauma experience, a median split into high and low IES scores was performed, showing that the effect of diminished cognitive control for negative trauma reminders was mainly driven by the highly impacted group. Our study extends previous research by providing deeper insights into how individual experiences of trauma-analogue exposure, heartrate, and the role of inhibitory control are related to the development of intrusive memories, and the resolution of cognitive interference when faced with trauma relevant reminders.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nicole Rheinheimer</t>
-  </si>
-  <si>
-    <t>Radboudumc Nijmegen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thu-$$-Talk-$-$$$
-Associations of Infant Colic with Sleeping Problems from Childhood through Adolescence
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nicole Rheinheimer (1)
-(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Radboudumc Nijmegen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Colic is characterized by high levels of unsoothable crying for more than three hours daily, peaking around six weeks postpartum. Studies suggest a high prevalence of sleeping problems in colicky infants with problems reaching up to 10 years of age. Many of the previous studies, however, relied on unstandardized and retrospective maternal recall, and no studies to date have followed colicky infants beyond the age of 10. Therefore, the aim of this study is to investigate the association of infant colic with reported sleeping problems from 2.5 until 16 years of age, as well as polysomnography at age 16. In this longitudinal study on a community sample, colic was diagnosed using prospective cry-diaries, filled in by the mothers for 4 days at age 6 weeks. Sleeping problems were assessed using maternal report at ages 2.5, 6 and 10 years, and child self-report at ages 12.5, 14 and 16 years. At age 16, 7 days of polysomnography data were collected using EEG wearables at home (Hypnodyne Corp., Sofia, Bulgaria). The research data is currently being analyzed and results will be presented at the conference.</t>
-    </r>
-  </si>
-  <si>
-    <t>Leon Kroczek</t>
-  </si>
-  <si>
-    <t>Universität Regensburg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thu-$$-Talk-$-$$$
-Communicative social intentions modulate emotional mimicry responses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Leon Kroczek (1)
-(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Universität Regensburg
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The coordinated exchange of facial expressions is an important part of face-to-face social interactions. Previous research has shown that sending a facial emotional expression influences the evaluation of response expressions, but it remains unclear whether this effect is driven by the display of the facial expression or rather by the communicative intention. In a preregistered experiment, 68 participants were asked to send an emoji (smiley, neutral, frowny) via a computer display to a virtual agent in front of them, whereupon the agent reacted with either a smiling or frowning facial expression. Mimicry responses were measured via facial EMG of the Zygomaticus and Corrugator muscle following the agent’s response. In addition, valence and arousal ratings were obtained after the interactive exchange. The results show that being smiled at is more pleasant and elicits greater Zygomaticus activation when the smile is received as a response to a smile emoji compared to a neutral or frown emoji. Interestingly, a mirrored pattern but with a smaller effect size was observed when participants were being frowned at, i.e. an agent’s frown was less pleasant and elicited greater Corrugator activation when it followed a smile emoji compared to a frown emoji. The results demonstrate that communicative intentions are sufficient to change the evaluation of facial response expressions of an interactive partner and that persons are sensitive to the congruency in emotional signals between sender and receiver. Using a minimal social interaction paradigm, the present study highlights interactive mechanisms in the evaluation of facial emotions.</t>
-    </r>
-  </si>
-  <si>
-    <t>Roman Kessler</t>
-  </si>
-  <si>
-    <t>Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thu-$$-Talk-$-$$$
-Is EEG better left alone for decoding?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Roman Kessler (1)
-(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Max-Planck-Institut für Kognitions- und Neurowissenschaften Leipzig
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Multiverse preprocessing has revealed the effect of single data preprocessing choices on ERP amplitude or latency. In multiverse approaches, pipelines are systematically varied, and downstream analyses are compared between forking paths (i.e., universes), providing insights into stability, generalizability, and the impact of researchers’ degrees of freedom on analysis outcomes. One particular use case is EEG decoding which exploits the multidimensionality of the data corresponding to specific cognitive processes to provide insight into how neural representations of categories differ or evolve over time.
-The objective of this study is to investigate the effect of preprocessing choices on the performance of decoding algorithms using multiverse preprocessing. The open ERPCORE dataset comprising different experiments was analyzed (ERN, LRP, MMN, N170, N2pc, N400, P3). We systematically varied each preprocessing step, including filtering, re-referencing, eye/muscle artifact correction, interpolations, and epoching. Decoding was performed based on each universe, either trial-wise using deep neural networks or time-resolved using logistic regression. 
-The results indicate that there are systematic but small performance differences between universes when using neural networks. This suggests that their filters are successfully learned independent of the preprocessing. However, for time-resolved decoding, performance differences were larger, with stringent filtering being the most important for achieving high decoding performance. Additionally, most artifact correction steps rather decreased decoding performance in both model types.
-The present study suggests that EEG preprocessing steps, beyond filtering, can reduce model accuracy. Additionally, our work suggests that the impact of preprocessing steps heavily depends on the decoding algorithm, as well as the experiment.</t>
     </r>
   </si>
   <si>
@@ -13425,7 +13425,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13437,7 +13437,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13450,7 +13450,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13460,7 +13460,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13471,7 +13471,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13481,7 +13481,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13492,7 +13492,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13502,7 +13502,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13513,7 +13513,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13523,7 +13523,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13534,7 +13534,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13554,7 +13554,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13566,7 +13566,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13579,7 +13579,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13589,7 +13589,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13600,7 +13600,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13610,7 +13610,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13621,7 +13621,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13631,7 +13631,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13642,7 +13642,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13652,7 +13652,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -13672,7 +13672,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13683,7 +13683,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13695,7 +13695,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13712,7 +13712,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13723,7 +13723,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13735,7 +13735,7 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -13745,7 +13745,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -14645,7 +14645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14785,74 +14785,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -14891,7 +14868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -14971,23 +14948,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15310,8 +15283,8 @@
   <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -17369,7 +17342,7 @@
       <c r="H55" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="5" t="s">
         <v>200</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -17381,7 +17354,7 @@
       <c r="L55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="31" t="s">
+      <c r="M55" s="27" t="s">
         <v>204</v>
       </c>
       <c r="N55" s="19"/>
@@ -17411,7 +17384,7 @@
       <c r="H56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="29" t="s">
         <v>205</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -17423,7 +17396,7 @@
       <c r="L56" t="s">
         <v>206</v>
       </c>
-      <c r="M56" s="32" t="s">
+      <c r="M56" s="30" t="s">
         <v>207</v>
       </c>
       <c r="N56" s="19"/>
@@ -17453,7 +17426,7 @@
       <c r="H57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" t="s">
         <v>208</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -17465,7 +17438,7 @@
       <c r="L57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M57" s="32" t="s">
+      <c r="M57" s="30" t="s">
         <v>210</v>
       </c>
       <c r="N57" s="19"/>
@@ -17495,7 +17468,7 @@
       <c r="H58" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="I58" t="s">
         <v>211</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -17507,7 +17480,7 @@
       <c r="L58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M58" s="17" t="s">
+      <c r="M58" s="3" t="s">
         <v>213</v>
       </c>
       <c r="N58" s="19"/>
@@ -17537,7 +17510,7 @@
       <c r="H59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" t="s">
         <v>214</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -17549,7 +17522,7 @@
       <c r="L59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="M59" s="3" t="s">
         <v>216</v>
       </c>
       <c r="N59" s="19"/>
@@ -17568,10 +17541,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="E60" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="F60" s="6">
-        <v>0.65208333333333335</v>
+        <v>0.67569444444444449</v>
       </c>
       <c r="G60" s="25" t="s">
         <v>22</v>
@@ -17579,7 +17552,7 @@
       <c r="H60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="I60" t="s">
         <v>217</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -17588,11 +17561,11 @@
       <c r="K60" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M60" s="17" t="s">
+      <c r="L60" t="s">
         <v>218</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="N60" s="19"/>
     </row>
@@ -17621,8 +17594,8 @@
       <c r="H61" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I61" s="30" t="s">
-        <v>219</v>
+      <c r="I61" t="s">
+        <v>220</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>201</v>
@@ -17631,10 +17604,10 @@
         <v>202</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M61" s="17" t="s">
         <v>221</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="N61" s="19"/>
     </row>
@@ -17663,8 +17636,8 @@
       <c r="H62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I62" s="30" t="s">
-        <v>222</v>
+      <c r="I62" t="s">
+        <v>223</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>201</v>
@@ -17673,10 +17646,10 @@
         <v>202</v>
       </c>
       <c r="L62" t="s">
-        <v>223</v>
-      </c>
-      <c r="M62" s="17" t="s">
         <v>224</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="N62" s="19"/>
     </row>
@@ -17705,8 +17678,8 @@
       <c r="H63" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I63" s="30" t="s">
-        <v>225</v>
+      <c r="I63" t="s">
+        <v>226</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>201</v>
@@ -17715,10 +17688,10 @@
         <v>202</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M63" s="17" t="s">
         <v>227</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="N63" s="19"/>
     </row>
@@ -17736,10 +17709,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="E64" s="6">
-        <v>0.6694444444444444</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F64" s="6">
-        <v>0.67569444444444449</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>22</v>
@@ -17747,8 +17720,8 @@
       <c r="H64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I64" s="30" t="s">
-        <v>228</v>
+      <c r="I64" t="s">
+        <v>229</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>201</v>
@@ -17756,10 +17729,10 @@
       <c r="K64" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="L64" t="s">
-        <v>229</v>
-      </c>
-      <c r="M64" s="17" t="s">
+      <c r="L64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M64" s="31" t="s">
         <v>230</v>
       </c>
       <c r="N64" s="19"/>
@@ -22173,7 +22146,7 @@
       <c r="H181" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I181" s="27" t="s">
+      <c r="I181" s="10" t="s">
         <v>615</v>
       </c>
       <c r="J181" s="14" t="s">
@@ -22182,10 +22155,10 @@
       <c r="K181" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="L181" s="27" t="s">
+      <c r="L181" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="M181" s="28" t="s">
+      <c r="M181" s="14" t="s">
         <v>619</v>
       </c>
     </row>
@@ -22214,7 +22187,7 @@
       <c r="H182" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I182" s="27" t="s">
+      <c r="I182" s="10" t="s">
         <v>620</v>
       </c>
       <c r="J182" s="14" t="s">
@@ -22223,10 +22196,10 @@
       <c r="K182" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="L182" s="27" t="s">
+      <c r="L182" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="M182" s="28" t="s">
+      <c r="M182" s="14" t="s">
         <v>622</v>
       </c>
     </row>
@@ -22255,7 +22228,7 @@
       <c r="H183" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I183" s="27" t="s">
+      <c r="I183" s="10" t="s">
         <v>623</v>
       </c>
       <c r="J183" s="14" t="s">
@@ -22264,10 +22237,10 @@
       <c r="K183" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="L183" s="27" t="s">
+      <c r="L183" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="M183" s="29" t="s">
+      <c r="M183" s="28" t="s">
         <v>625</v>
       </c>
     </row>
@@ -22296,7 +22269,7 @@
       <c r="H184" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I184" s="27" t="s">
+      <c r="I184" s="10" t="s">
         <v>626</v>
       </c>
       <c r="J184" s="14" t="s">
@@ -22305,10 +22278,10 @@
       <c r="K184" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="L184" s="27" t="s">
+      <c r="L184" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="M184" s="29" t="s">
+      <c r="M184" s="28" t="s">
         <v>627</v>
       </c>
     </row>

--- a/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
+++ b/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gluth/Arbeit/Conferences_Talks/PuG2024/PuG_2024_Booklet/data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurt\Nextcloud\Uni\shk\Booklet\pug24\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8410A1EC-C8B2-4D39-A034-DEC45008A143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D65A94-5959-40A7-B472-07A652683019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
+    <workbookView xWindow="4100" yWindow="1910" windowWidth="29920" windowHeight="18230" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="691">
   <si>
     <t>Tag</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Abstract</t>
+  </si>
+  <si>
+    <t>UniChair</t>
   </si>
   <si>
     <t>Mittwoch</t>
@@ -185,6 +188,9 @@
     </r>
   </si>
   <si>
+    <t>MSB Medical School Berlin; University of Hamburg</t>
+  </si>
+  <si>
     <t>Rosa Grützmann</t>
   </si>
   <si>
@@ -603,7 +609,7 @@
 Specifically, the symposium asks how utilizing single-trial data helps to characterize and conceptualize general principles of neural processing and what we can learn about general neural mechanisms underlying perception, cognitive functions, and behavior. The work discussed in the symposium will focus on the analysis of neural measures such as ‘traditional’ event-related potentials (ERPs), oscillatory activity, and ‘new’ measures like signal entropy as well as single-trial behavioral measures. By showcasing recent experiments, we will explore emerging technologies and computational tools that can aid in the analysis of single-trial data, such as spectral decomposition, denoising procedures, information theoretic measures, and Bayesian statistical modeling approaches. We present how these novel methodologies are implemented to explicitly probe and uncover general neural mechanisms underlying perception and cognitive functions. In a joint discussion, we will deepen our understanding of the advantages, limitations, conceptual assumptions, and prerequisites as well as the obstacles of analyzing single-trial data to advance our understanding of the dynamic processes of the brain and their relationship to human cognition and behavior.</t>
   </si>
   <si>
-    <t>Max Planck Institute for Human Cognitive and Brain Sciences, Max Planck Institute for Human Cognitive and Brain Sciences</t>
+    <t>Max Planck Institute for Human Cognitive and Brain Sciences</t>
   </si>
   <si>
     <r>
@@ -707,10 +713,10 @@
     </r>
   </si>
   <si>
+    <t>Leipzig University</t>
+  </si>
+  <si>
     <t>Christopher Gundlach</t>
-  </si>
-  <si>
-    <t>Leipzig University</t>
   </si>
   <si>
     <r>
@@ -1058,6 +1064,9 @@
     </r>
   </si>
   <si>
+    <t>University of Würzburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oliver Frank </t>
   </si>
   <si>
@@ -1999,6 +2008,9 @@
       <t xml:space="preserve">
 Predictive processing suggests that perception emerges from a hierarchical, inferential process. Psychotic experiences may be the result of aberrant weights attributed to prior information and sensory inputs. In this study, we investigated the relative weighting of different types of prior beliefs and its modulation by psychosis proneness. As a type of sensory-level prior belief, we investigated choice history biases (CHB). A cross-modal, predictive cue was used to induce higher-level beliefs about an upcoming stimulus. We investigated whether psychosis proneness is related to aberrant CHB and cue utilisation in perceptual decision-making. We developed two experiments that were parallel in design, but differed in stimulus modality. Participants judged an auditory stimulus following a visual cue (Experiment 1), or a visual stimulus following an auditory cue (Experiment 2). In line with our pre-registered hypothesis, we observed reduced CHB with increasing psychosis proneness in both modalities. Our findings regarding a compensatory increase in cue reliance with increasing psychosis proneness were inconsistent across experiments. The finding of reduced CHB with increasing psychosis proneness is consistent with predictive processing accounts of psychosis, which suggest imprecise low-level prior beliefs as a mechanism underlying the emergence of psychotic symptoms. Considering equivalent findings in clinical populations, a reduced impact of prior perceptual experiences on current perception may be a hallmark characteristic of perceptual inference in psychosis.</t>
     </r>
+  </si>
+  <si>
+    <t>Technical University Munich</t>
   </si>
   <si>
     <t>Charline Peylo</t>
@@ -2314,6 +2326,9 @@
     </r>
   </si>
   <si>
+    <t>Max Planck Institute for Human Cognitive and Brain Sciences; Max Planck Institute for Human Cognitive and Brain Sciences</t>
+  </si>
+  <si>
     <t>Sybren van Hoornweder</t>
   </si>
   <si>
@@ -2383,9 +2398,6 @@
     <t>Sandra Martin</t>
   </si>
   <si>
-    <t>Max Planck Institute for Human Cognitive and Brain Sciences</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2618,6 +2630,9 @@
     </r>
   </si>
   <si>
+    <t>McLean Hospital, Harvard Medical School</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manuel Kuhn </t>
   </si>
   <si>
@@ -2733,9 +2748,6 @@
       <t xml:space="preserve">
 Aberrant cost-benefit decision-making has emerged as an important feature of major depressive disorder (MDD). Yet, the extent to which this deficit persists after remission remains unclear. In this study of adults with remitted depression (rMDD), using two computational modeling approaches, we probed underlying decision-making processes to assess overall willingness to expend effort in rMDD and characterize latent decision strategies dependent on reward magnitude and probability. 108 participants, 40 unmedicated rMDD and 68 healthy controls, completed the Effort Expenditure for Rewards Task (EEfRT). In each trial, participants chose to complete an easy or a hard task as a function of reward magnitude and probability. Repeated-measures ANOVAs revealed that rMDDs demonstrated generally reduced willingness to expend effort, particularly for lower levels of reward magnitude and probability which reverted when reward was high and more likely. Similarly, Hierarchical Bayesian Drift Diffusion Modeling (HDDM) demonstrated a reduced tendency to accumulate evidence towards the high effort option but increased impact on drift-rate with high reward magnitude and probability in rMDD. Notably, subjective value modeling showed no group differences in decision-making strategies incorporating reward magnitude and probability information. Consistent with prior research, our findings suggest a persistent blunted reward sensitivity in rMDD. However, we observed increased sensitivity in rMDD when reward is high and more certain, indicative of persistent changes in the reward system promoting rMDD individuals to seek reward in more extreme conditions compensating for the diminished responsiveness to typical rewards. Identifying such residual deficits in rMDD is crucial to illuminate potential mechanisms of relapse.</t>
     </r>
-  </si>
-  <si>
-    <t>McLean Hospital, Harvard Medical School</t>
   </si>
   <si>
     <r>
@@ -3082,6 +3094,9 @@
     </r>
   </si>
   <si>
+    <t>Julius-Maximilian University Würzburg</t>
+  </si>
+  <si>
     <t>Mario Reutter</t>
   </si>
   <si>
@@ -3537,6 +3552,9 @@
       <t xml:space="preserve">
 Language comprehension accumulates over consecutive sentences. During discourse, concepts that are introduced in one sentence often recur in later sentences. To minimize repetition and utterance length, languages use pronouns, like the word ‘she’, to refer to nouns that were introduced before. It has been suggested that language comprehension requires that pronouns activate the same neuronal representations as the nouns themselves. We test this hypothesis by recording from individual neurons in the human hippocampus during a reading task. We found that cells that are selective to a particular noun (‘concept cells’) are later reactivated only by pronouns that refer to the cells’ preferred noun. These results imply that concept cells contribute to a rapid and dynamic semantic memory network which is recruited during language comprehension.</t>
     </r>
+  </si>
+  <si>
+    <t>Cedars Sinai Medical Center; University of Tübingen</t>
   </si>
   <si>
     <t>Stefanie Liebe</t>
@@ -3985,6 +4003,9 @@
       <t xml:space="preserve">
 Successful listening in noisy everyday environments crucially depends on the attention-guided segregation of relevant from irrelevant sound sources. Such listening conditions are particularly challenging for aging individuals with declining hearing ability. Recent research has identified different neurobiological implementations of such ‘attentional filters’, yet their potency to predict attentive listening behaviour and its change with age remains largely unknown. Here, I will present behavioural and neurophysiological (electroencephalography, EEG) evidence from a large-scale longitudinal sample of healthy middle-aged and older (N=155; 40–80 yrs) adults. I will focus on attention-guided neural speech tracking as one key neural filter mechanism. It is characterized by the alignment of auditory neural activity to slow fluctuations in the speech signal of interest. First, I will show how stronger neural filtering was linked to enhanced attentive listening behaviour, both within and across aging individuals. Second, I will speak to the potency of neural speech tracking to predict individual trajectories of attentive listening behaviour. Here, I ask if the fidelity with which an individual implements this neural filtering strategy represents a stable neural trait-like marker of individual listening success. I also present evidence on the question of whether differences in neural filtering strength observed between aging listeners are predictive of how their listening ability will develop in the future, and whether individual behavioural and neural changes are systematically related. Answering these questions gauges the potential of any neural filtering-based translational efforts aimed at restoring and maintaining communication success.</t>
     </r>
+  </si>
+  <si>
+    <t>Leibniz Research Centre for Working Environment and Human Factors (IfADo) at the Technical University Dortmund; Leibniz Research Centre for Working Environment and Human Factors (IfADo) at the Technical University Dortmund</t>
   </si>
   <si>
     <t>Niko Busch</t>
@@ -4369,6 +4390,9 @@
     </r>
   </si>
   <si>
+    <t>Fraunhofer IAO, Unversity of Oldenburg</t>
+  </si>
+  <si>
     <t>Applied Neurocognitive Psychology, Department of Psychology, Carl von Ossietzky University; Applied Neurocognitive Systems, Fraunhofer Institute for Industrial Engineering IAO</t>
   </si>
   <si>
@@ -4824,6 +4848,9 @@
       <t xml:space="preserve">
 Humans generally associate rounder/smoother shapes with pseudowords like ‘Bouba’ or ‘Maluma’, and in contrast, tend to match spiky/angular shapes with pseudowords such as ‘Kiki’ or ‘Takete’. This phenomenon of sound–shape association (also known as the Bouba/Kiki effect) is almost universally observed in humans across languages and ethnicities. If crossmodally congruent sound–shape pairs are more robustly integrated in humans, distinguishing the individual sounds and shapes in time might be hypothetically more challenging compared to incongruent sound–shape pairs. Supporting this premise, a highly cited work by Parise and Spence (2009, *n* = 12) reported worse discrimination of temporal order for audiovisual stimuli with congruent compared to incongruent sound–shape associations. This influential study is situated at the 98.6th percentile of all articles published in 2009 and curated by the *Web of Science*, across all disciplines, and has been cited more than 300 times according to *Google Scholar*. However, to the best of our knowledge, no known replication of the original result has yet been reported. Here, we present the results of five experiments across two laboratories, including a preregistered replication attempt, all of which (∑*n* = 102) failed to replicate the original results. Additionally, frequentist and Bayesian meta-analyses found no evidence against the null hypothesis and revealed a negligible effect size. The combined results indicate that multisensory temporal resolution in humans is unaffected by sound–shape associations, which might arise at a later or parallel processing stage compared to the discrimination of crossmodal temporal order.</t>
     </r>
+  </si>
+  <si>
+    <t>University Medical Center, Essen; Ruhr-University Bochum</t>
   </si>
   <si>
     <t>Nick Augustat</t>
@@ -5367,6 +5394,9 @@
     </r>
   </si>
   <si>
+    <t>LMU Munich; Radboud University Nijmegen</t>
+  </si>
+  <si>
     <t>Jacqueline van der Meij</t>
   </si>
   <si>
@@ -5476,7 +5506,7 @@
     <t>Fabian Schwimmbeck</t>
   </si>
   <si>
-    <t xml:space="preserve"> University of Munich</t>
+    <t>LMU Munich</t>
   </si>
   <si>
     <r>
@@ -5532,6 +5562,9 @@
   </si>
   <si>
     <t xml:space="preserve">Uncovering lifespan signatures: A multimodal perspective at the interface of development, aging, and disease risk </t>
+  </si>
+  <si>
+    <t>Dominik Kraft</t>
   </si>
   <si>
     <t>Christina Stier</t>
@@ -5592,6 +5625,9 @@
     </r>
   </si>
   <si>
+    <t>University Hospital Münster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Philippe Jawinski </t>
   </si>
   <si>
@@ -5650,9 +5686,6 @@
     <t xml:space="preserve">Christina Stier </t>
   </si>
   <si>
-    <t>University Hospital Münster</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5899,6 +5932,9 @@
     </r>
   </si>
   <si>
+    <t>University of Greifswald; University of Greifswald</t>
+  </si>
+  <si>
     <t>Kezia-Lara Droste</t>
   </si>
   <si>
@@ -6223,36 +6259,35 @@
 As we navigate daily life, our senses are subject to a merciless onslaught of incoming stimulation only a tiny subset of which is relevant for future behavior. Working memory enables us to retain these relevant inputs for subsequent use. But our cortical representational resources are limited and consequently we are tasked with encoding, updating, selecting, removing, and refreshing the right information using these resources. Work focusing on individual mental representations and their cortical instantiation has revealed that both anterior and posterior regions can represent working memory contents. Here, using data from humans and nonhuman primates, we investigate the interactions between multiple mental and neural representations using multivariate pattern analysis. Rosanne Rademaker will show how incoming sensory information interacts with items held in working memory, and what happens when visual input becomes task relevant. Thomas Christophel will demonstrate how load effects in delayed recall can be explained by altered recruitment of cortical regions as the number of retained items increases. Polina Iamshchinina will talk about how attending to a sensory input and selecting a mental representation from working memory relies on a shared mechanism. Surya Gayet will interrogate bidirectional interactions between memory representations and perception during naturalistic search. Finally, Christoph Blewdowski will demonstrate that even item from previous trials that are inadvertently represented can alter currently relevant mental representations and behavior. Thereby we shed light on the manifold of interactions between concurrently represented mental representations and how they jointly guide our interactions with the world around us.</t>
   </si>
   <si>
+    <t>Ernst Strüngmann Institut</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Thu-$$-Talk-$-$$$
-Manipulating attentional priority creates a trade-off between memory and sensory representations in human visual cortex </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rosanne Rademaker </t>
+Manipulating attentional priority creates a trade-off between memory and sensory representations in human visual cortex 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Rosanne Rademaker
+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 People often remember visual information over brief delays while actively engaging with ongoing inputs from the surrounding visual environment. Depending on the situation, one might prioritize mnemonic contents (i.e., remembering details of a past event), or preferentially attend sensory inputs (i.e., minding traffic while crossing a street). Previous fMRI work has shown that early sensory regions can simultaneously represent both mnemonic and passively viewed sensory information. Here we test the limits of such simultaneity by manipulating attention towards sensory distractors during a working memory task performed by human subjects during fMRI scanning. Participants remembered the orientation of a target grating while a distractor grating was shown during the middle portion of the memory delay. Critically, there were several subtle changes in the contrast and the orientation of the distractor, and participants were cued to either ignore the distractor, detect a change in contrast, or detect a change in orientation. Despite sensory stimulation being matched in all three conditions, the fidelity of memory representations in early visual cortex was highest when the distractor was ignored, intermediate when participants attended distractor contrast, and lowest when participants attended the orientation of the distractor during the delay. In contrast, the fidelity of distractor representations was lowest when ignoring the distractor, intermediate when attending distractor-contrast, and highest when attending distractor-orientation. These data suggest a trade-off in early sensory representations when engaging top-down feedback to attend both seen and remembered features and may partially explain memory failures that occur when subjects are distracted by external events.</t>
@@ -6301,13 +6336,15 @@
     <t>Polina Iamshchinina</t>
   </si>
   <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Thu-$$-Talk-$-$$$
@@ -6316,20 +6353,19 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 
-Polina Iamshchinina</t>
+Polina Iamshchinina
+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -6338,6 +6374,9 @@
   </si>
   <si>
     <t>Surya Gayet</t>
+  </si>
+  <si>
+    <t>Utrecht University</t>
   </si>
   <si>
     <r>
@@ -6377,6 +6416,9 @@
   </si>
   <si>
     <t>Christoph Bledowski</t>
+  </si>
+  <si>
+    <t>Goethe University Frankfurt</t>
   </si>
   <si>
     <r>
@@ -6487,6 +6529,9 @@
     </r>
   </si>
   <si>
+    <t>University Medical Center Hamburg-Eppendorf; University Medical Center Hamburg-Eppendorf</t>
+  </si>
+  <si>
     <t>Jana L. Aulenkamp</t>
   </si>
   <si>
@@ -6802,6 +6847,9 @@
     </r>
   </si>
   <si>
+    <t>University of Bern; University of Bern</t>
+  </si>
+  <si>
     <t>Thomas P. Reber</t>
   </si>
   <si>
@@ -7039,7 +7087,7 @@
     </r>
   </si>
   <si>
-    <t>Michael Orth</t>
+    <t>Jessica Peter</t>
   </si>
   <si>
     <t>University of Bern</t>
@@ -7049,44 +7097,37 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fri-$$-Talk-$-$$$
-Left DLPFC modulation induces cognitive reorganisation in patients with depression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Michael Orth (1), Ronya Münger (1), Tobias Bracht (1), Sebastian Walther (1), Jutta Joormann (2), Jessica Peter (1)
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Fri-$$-Talk-$-$$$
+Left DLPFC modulation induces cognitive reorganisation in patients with depression
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Jessica Peter (1), Ronya Münger (1), Tobias Bracht (1), Sebastian Walther (1), Jutta Joormann (2), Michael Orth (1)
 (1) </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>University of Bern</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">, (2) </t>
     </r>
@@ -7094,31 +7135,17 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yale University</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Yale University
 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 Focusing on negative rather than positive content is a key element of depression. This includes expectations, perceptions, and episodic memory. Shifting this negativity bias towards positive content using cognitive behavioural interventions can improve symptoms. The left dorsolateral prefrontal cortex (DLPFC) plays an important role in the encoding of episodic memories. In the current study, we examined whether modulating activity in the DLPFC can shape memory encoding towards positive content. Healthy adults (n=80, mean age 23.8±3.1, 60% female) and depressed patients (n=50, mean age 25.6±5.1, 68% female) received anodal DLPFC transcranial direct current stimulation (or sham) during encoding of an incidental learning task (20 min, 1mA), in which they decided whether words were positive or negative for them. Five minutes after encoding, a surprising free recall of the words followed. In both groups, modulation of the left DLPFC enhanced overall recall (p=.042). Recall of positive content increased as total number of positive words (p&lt;.001) and in relation to overall recall (10-15%; p&lt;.001). Assessing the first word recalled, in the sham condition, depressed participants recalled more than twice as often a negative than a positive word with an evenly balanced recall in controls. With modulation, depressed participants´ first word was 3x more often positive (p&lt;.001). No such effect was found for the last word recalled. We show that non-invasive modulation of left DLPFC reduces a bias towards negative content in depression. This pertains particularly to what is recalled most easily suggesting cognitive reorganisation improves the immediate accessibility of positive new episodic memories.</t>
@@ -7195,6 +7222,9 @@
     </r>
   </si>
   <si>
+    <t>University of Lübeck; Max Planck Institute for Human Cognitive and Brain Sciences</t>
+  </si>
+  <si>
     <t>Jill Kries</t>
   </si>
   <si>
@@ -7478,6 +7508,9 @@
     </r>
   </si>
   <si>
+    <t>University of Bergen; University of Zurich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sara L. Kroll </t>
   </si>
   <si>
@@ -8103,6 +8136,9 @@
       <t xml:space="preserve">
 Large population-based cohort studies allow for the assessment of a wide range of common diseases and intermediate phenotypes. They provide a valuable resource for understanding how genetic, environmental, and clinical factors interact in the development and progression of mental disorders. The German National Cohort (NAKO) is a longitudinal cohort study, with a total of 205,415 subjects, a more detailed assessment in a subset of 56,971 subjects, and whole-body MRI in 30,861 subjects. The assessment covers a wide range of common somatic, neurological, and psychiatric disorders and associated protective and risk factors. In the area of psychiatric disorders, the NAKO includes data from a face-to-face interview, questionnaires completed on a touch-screen, and a neuropsychological test battery. Data is collected on depression, anxiety, and panic symptoms and diagnoses, memory complaints, perceived stress, childhood trauma, personality, and social networks. The neuropsychological tests assess memory, executive function, and fluid intelligence. The results of initial studies investigating the distribution of the assessed psychiatric and cognitive variables, and their association with established risk factors will be presented. The NAKO is a valuable resource for advancing knowledge about early detection, prediction, prevention, and treatment of mental disorders. The NAKO data is available to interested researchers. Other data, such as longitudinal data, genomic data, and health insurance records will become available in the future.</t>
     </r>
+  </si>
+  <si>
+    <t>Central Institute of Mental Health, Mannheim; Central Institute of Mental Health, Mannheim</t>
   </si>
   <si>
     <t>Maja Völker</t>
@@ -9216,6 +9252,9 @@
       <t xml:space="preserve">
 Animal studies have demonstrated that chronic or severe stress can suppress the hypothalamus-pituitary-gonadal (HPG) axis, leading to compromised fertility and reproductive function through the inhibition of gonadal steroid secretion and interactions with glucocorticoids. However, the impact of acute psychosocial stress on gonadal steroid secretion in humans remains unclear. This presentation synthesizes experimental research investigating the acute effects of stress on gonadal steroid secretion in humans. A systematic literature search identified 21 studies comprising 881 individuals that measured testosterone, progesterone, or estradiol in response to standardized acute laboratory stressors in healthy subjects. Both the literature review and quantitative meta-analysis indicate that acute stress tends to stimulate rather than inhibit HPG axis activity in humans, despite significant methodological variability and diverse reported results. The observed increase in gonadal steroids following acute stress in humans contrasts with findings from many animal studies, particularly those examining severe or chronic stressors. Methodological challenges and issues are discussed, aiming to inspire future experimental investigations in this domain. A comprehensive understanding of these mechanisms holds implications for health, disease, and the modulation of various behaviors under acute stress conditions. This study underscores the need for further exploration to elucidate the complexities of acute stress responses in humans.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Tübingen</t>
   </si>
   <si>
     <t>A.F. Denninger</t>
@@ -10212,6 +10251,9 @@
     </r>
   </si>
   <si>
+    <t>Experimental Psychology I, Institute of Psychology, Osnabrück University</t>
+  </si>
+  <si>
     <t xml:space="preserve">Felix Klotzsche </t>
   </si>
   <si>
@@ -10386,9 +10428,6 @@
     <t>Joanna Kisker</t>
   </si>
   <si>
-    <t xml:space="preserve"> Experimental Psychology I, Institute of Psychology, Osnabrück University</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -10461,9 +10500,6 @@
     <t>Marike Johnsdorf</t>
   </si>
   <si>
-    <t>Experimental Psychology I, Institute of Psychology, Osnabrück University</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -11026,6 +11062,9 @@
       <t xml:space="preserve">
 Habits are responses elicited by context stimuli without deliberation of their consequences. Thus, they reduce cognitive load in everyday life, but may also dominate behavior in addiction-like and compulsive psychopathologies. Due to their ubiquity and importance, it is essential to study their development. However, inducing and measuring habitual behavior in humans in the laboratory has proven difficult. In this Registered Report (https://doi.org/10.17605/OSF.IO/EQ9JD), we developed two novel behavioral tasks based on computational models that operationalize habits by the frequency of past behavior. We also included four previously used tasks and all three currently available self-report questionnaires of real-life habits to test the validity of all behavioral tasks. Extended testing of 220 participants on each of five consecutive days in the lab and an additional online session produced the most comprehensive dataset of habitual behavior to date. All data, code, and material have been publicly shared (https://osf.io/qjwht/) to encourage secondary analyses. Linear mixed-effects models and computational modeling of choice behavior revealed that past choice frequency influenced current choice and response time in addition to and independently of reinforcement. However, behavioral indices of choice frequency were not associated with measures of habit in the other four behavioral tasks. In addition, behaviors in these tasks were not meaningfully related to each other, and no behavioral task was related to self-report measures of real-life habits. These findings call for a rigorous reevaluation of our understanding and definition of human habitual behavior in the laboratory.</t>
     </r>
+  </si>
+  <si>
+    <t>University of Zurich; Otto von Guericke University Magdeburg</t>
   </si>
   <si>
     <t xml:space="preserve">Eike K. Buabang </t>
@@ -11517,6 +11556,9 @@
     </r>
   </si>
   <si>
+    <t>Charité Universitätsmedizin Berlin; Leibniz Institute for Resilience Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peter Kirsch </t>
   </si>
   <si>
@@ -12520,6 +12562,9 @@
     </r>
   </si>
   <si>
+    <t>University of Würzburg; University of Freiburg</t>
+  </si>
+  <si>
     <t>Charley M Wu</t>
   </si>
   <si>
@@ -12869,6 +12914,9 @@
       <t xml:space="preserve">
 Transcranial magnetic and ultrasonic stimulation (TMS, TUS) are used to non-invasively modulate neuronal activity across the human brain. To further improve the precision and, thus, effectiveness of these techniques in, e.g., clinical applications, it is essential to carefully plan and personalize their application prospectively. In this talk, I will illustrate how to combine both TMS and TUS with magnetic resonance imaging (MRI) – firstly for planning and personalizing device placement as well as stimulation site and intensity, and secondly to determine whether the stimulation successfully reaches the neuronal target structure. I will show how to derive detailed information about individual head and brain anatomy as well as functional brain organization from structural and functional MRI, respectively, and how to utilize biophysical simulations of the TMS-induced electric and TUS-induced acoustic fields for optimizing various stimulation parameters. Finally, I will explain how to combine both stimulation methods with concurrent functional MRI measurements to provide proof of successful neural target engagement.</t>
     </r>
+  </si>
+  <si>
+    <t>Central Institute for Mental Health, German Center for Mental Health (DZPG); University of Tübingen</t>
   </si>
   <si>
     <t>Magdalena Mischke</t>
@@ -13544,6 +13592,9 @@
     </r>
   </si>
   <si>
+    <t>Hector Institute for Artificial Intelligence in Psychiatry, Central Institute of Mental Health, Medical Faculty Mannheim, Heidelberg University</t>
+  </si>
+  <si>
     <t>J. E. Schneider Penate</t>
   </si>
   <si>
@@ -13899,6 +13950,9 @@
     </r>
   </si>
   <si>
+    <t>University of Freiburg; LMU Munich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thomas Schreiner </t>
   </si>
   <si>
@@ -14375,6 +14429,9 @@
       <t xml:space="preserve">
 To date, cross-modal interactions between auditory and chemosensory processing remain poorly understood. Hence, the present study aimed to show if and how sound localization is influenced by bimodal odorant stimulation. Participants completed a dynamic sound localization paradigm in which they were presented with a sequence of sounds at varying locations. After each sound, participants made a two-alternative forced choice judgment, indicating its spatial location (left vs. right). Critically, in a subset of occasions, but unbeknown to the participants, the sounds were presented at a central location, creating a situation of maximal spatial uncertainty. Furthermore, in the first half of the sound sequence, sound presentation could be accompanied by a task-irrelevant bimodal odorant stimulation (i.e., isopropanol) in the left, right, or both nostrils. In addition, odorant-free auditory-only trials served as a baseline condition. Under conditions of high spatial uncertainty (i.e., central sounds), the proportion of right-ward responses increased with right-nostril odorant stimulation but decreased with left-nostril stimulation (relative to the two control conditions). This effect was only present in the second half of the sound sequence, suggesting an after-effect of odorant-stimulation. Confirming the successful manipulation of spatial attention, we observed a significant lateralization of posterior alpha-band power in response to a physically non-lateralized sound. Notably, attentional orienting towards strongly lateralized (+/- 15° azimuth) sounds in the sequence was disturbed by incongruent odorant-stimulation (e.g., left-sided sound and right-nostril odorant stimulation), as reflected in reduced alpha power lateralization. In sum, the present study demonstrates a chemosensory-sound ventriloquism effect and its neurophysiological underpinnings.</t>
     </r>
+  </si>
+  <si>
+    <t>Leibniz Research Centre for Working Environment and Human Factors; Johannes Gutenberg University Mainz</t>
   </si>
   <si>
     <t>Philipp Musfeld</t>
@@ -14645,7 +14702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14752,13 +14809,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -14832,6 +14882,39 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14868,7 +14951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -14924,10 +15007,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14948,19 +15028,33 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14984,9 +15078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15024,7 +15118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15130,7 +15224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15272,7 +15366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15283,26 +15377,27 @@
   <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.875" style="1"/>
-    <col min="7" max="7" width="16.875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="16.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.08203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="19.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="22.5" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="14" max="14" width="10.83203125" style="5"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15321,7 +15416,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -15342,13 +15437,16 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>14</v>
@@ -15357,12 +15455,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>16</v>
@@ -15371,12 +15469,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>18</v>
@@ -15385,15 +15483,15 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
         <v>0.375</v>
@@ -15402,12 +15500,12 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>0.38541666666666669</v>
@@ -15416,12 +15514,12 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="48" customHeight="1">
+    <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6">
         <v>0.4375</v>
@@ -15435,34 +15533,37 @@
       <c r="F8" s="6">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>0.4375</v>
@@ -15476,34 +15577,34 @@
       <c r="F9" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="215.1" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>0.4375</v>
@@ -15517,34 +15618,34 @@
       <c r="F10" s="6">
         <v>0.46875</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="215.1" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>0.4375</v>
@@ -15558,34 +15659,34 @@
       <c r="F11" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="215.1" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>0.4375</v>
@@ -15599,34 +15700,34 @@
       <c r="F12" s="6">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>22</v>
+      <c r="G12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="213.95" customHeight="1">
+    <row r="13" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6">
         <v>0.4375</v>
@@ -15640,34 +15741,37 @@
       <c r="F13" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>42</v>
+      <c r="G13" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="213.95" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="6">
         <v>0.4375</v>
@@ -15681,34 +15785,34 @@
       <c r="F14" s="6">
         <v>0.46527777777777779</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>42</v>
+      <c r="G14" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="213.95" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="6">
         <v>0.4375</v>
@@ -15722,34 +15826,34 @@
       <c r="F15" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>42</v>
+      <c r="G15" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="213.95" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>0.4375</v>
@@ -15763,34 +15867,34 @@
       <c r="F16" s="6">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>42</v>
+      <c r="G16" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="225.95" customHeight="1">
+    <row r="17" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6">
         <v>0.4375</v>
@@ -15804,34 +15908,37 @@
       <c r="F17" s="6">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>59</v>
+      <c r="G17" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="225.95" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C18" s="6">
         <v>0.4375</v>
@@ -15845,34 +15952,34 @@
       <c r="F18" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>59</v>
+      <c r="G18" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="225.95" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C19" s="6">
         <v>0.4375</v>
@@ -15886,34 +15993,34 @@
       <c r="F19" s="6">
         <v>0.46875</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>59</v>
+      <c r="G19" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="225.95" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="6">
         <v>0.4375</v>
@@ -15927,34 +16034,34 @@
       <c r="F20" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>59</v>
+      <c r="G20" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="225.95" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C21" s="6">
         <v>0.4375</v>
@@ -15968,34 +16075,34 @@
       <c r="F21" s="6">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>59</v>
+      <c r="G21" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.6">
+    <row r="22" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6">
         <v>0.4375</v>
@@ -16009,34 +16116,37 @@
       <c r="F22" s="6">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>79</v>
+      <c r="G22" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="409.6">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C23" s="6">
         <v>0.4375</v>
@@ -16050,34 +16160,34 @@
       <c r="F23" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>79</v>
+      <c r="G23" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="409.6">
+    <row r="24" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6">
         <v>0.4375</v>
@@ -16091,34 +16201,34 @@
       <c r="F24" s="6">
         <v>0.46875</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>79</v>
+      <c r="G24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="409.6">
+    <row r="25" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6">
         <v>0.4375</v>
@@ -16132,34 +16242,34 @@
       <c r="F25" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>79</v>
+      <c r="G25" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="409.6">
+    <row r="26" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6">
         <v>0.4375</v>
@@ -16173,34 +16283,34 @@
       <c r="F26" s="6">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>79</v>
+      <c r="G26" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.6">
+    <row r="27" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6">
         <v>0.4375</v>
@@ -16214,34 +16324,37 @@
       <c r="F27" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>99</v>
+      <c r="G27" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="409.6">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C28" s="6">
         <v>0.4375</v>
@@ -16255,34 +16368,34 @@
       <c r="F28" s="6">
         <v>0.46527777777777779</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>99</v>
+      <c r="G28" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="409.6">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C29" s="6">
         <v>0.4375</v>
@@ -16296,34 +16409,34 @@
       <c r="F29" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>99</v>
+      <c r="G29" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="409.6">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C30" s="6">
         <v>0.4375</v>
@@ -16337,34 +16450,34 @@
       <c r="F30" s="6">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>99</v>
+      <c r="G30" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C31" s="6">
         <v>0.5</v>
@@ -16374,12 +16487,12 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="210" customHeight="1">
+    <row r="32" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C32" s="6">
         <v>0.54166666666666663</v>
@@ -16393,34 +16506,37 @@
       <c r="F32" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>42</v>
+      <c r="G32" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="210" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C33" s="6">
         <v>0.54166666666666663</v>
@@ -16434,34 +16550,34 @@
       <c r="F33" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>42</v>
+      <c r="G33" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="210" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C34" s="6">
         <v>0.54166666666666663</v>
@@ -16475,34 +16591,34 @@
       <c r="F34" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>42</v>
+      <c r="G34" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="210" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C35" s="6">
         <v>0.54166666666666663</v>
@@ -16516,34 +16632,34 @@
       <c r="F35" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>42</v>
+      <c r="G35" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="210" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C36" s="6">
         <v>0.54166666666666663</v>
@@ -16557,34 +16673,34 @@
       <c r="F36" s="6">
         <v>0.59375</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>42</v>
+      <c r="G36" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6">
+    <row r="37" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C37" s="6">
         <v>0.54166666666666663</v>
@@ -16598,34 +16714,37 @@
       <c r="F37" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>99</v>
+      <c r="G37" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="409.6">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C38" s="6">
         <v>0.54166666666666663</v>
@@ -16639,34 +16758,34 @@
       <c r="F38" s="6">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>99</v>
+      <c r="G38" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="K38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="409.6">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C39" s="6">
         <v>0.54166666666666663</v>
@@ -16680,34 +16799,34 @@
       <c r="F39" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>99</v>
+      <c r="G39" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="409.6">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C40" s="6">
         <v>0.54166666666666663</v>
@@ -16721,34 +16840,34 @@
       <c r="F40" s="6">
         <v>0.59722222222222221</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>99</v>
+      <c r="G40" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C41" s="6">
         <v>0.54166666666666663</v>
@@ -16762,34 +16881,37 @@
       <c r="F41" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>59</v>
+      <c r="G41" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="10" customFormat="1" ht="409.6">
-      <c r="A42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="C42" s="6">
         <v>0.54166666666666663</v>
@@ -16803,34 +16925,35 @@
       <c r="F42" s="6">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>59</v>
+      <c r="G42" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>156</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N42" s="32"/>
     </row>
-    <row r="43" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C43" s="6">
         <v>0.54166666666666663</v>
@@ -16844,34 +16967,35 @@
       <c r="F43" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>59</v>
+      <c r="G43" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>159</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N43" s="32"/>
     </row>
-    <row r="44" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C44" s="6">
         <v>0.54166666666666663</v>
@@ -16885,34 +17009,35 @@
       <c r="F44" s="6">
         <v>0.59722222222222221</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>59</v>
+      <c r="G44" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>162</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="1:13" ht="409.6">
+    <row r="45" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C45" s="6">
         <v>0.54166666666666663</v>
@@ -16926,34 +17051,37 @@
       <c r="F45" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>22</v>
+      <c r="G45" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="409.6">
+    <row r="46" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C46" s="6">
         <v>0.54166666666666663</v>
@@ -16967,34 +17095,34 @@
       <c r="F46" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>22</v>
+      <c r="G46" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="409.6">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="C47" s="6">
         <v>0.54166666666666663</v>
@@ -17008,34 +17136,34 @@
       <c r="F47" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>22</v>
+      <c r="G47" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I47" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J47" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="K47" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="409.6">
+    <row r="48" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C48" s="6">
         <v>0.54166666666666663</v>
@@ -17049,34 +17177,34 @@
       <c r="F48" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>22</v>
+      <c r="G48" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="409.6">
+    <row r="49" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C49" s="6">
         <v>0.54166666666666663</v>
@@ -17090,34 +17218,34 @@
       <c r="F49" s="6">
         <v>0.59375</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>22</v>
+      <c r="G49" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="245.1" customHeight="1">
+    <row r="50" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C50" s="6">
         <v>0.54166666666666663</v>
@@ -17131,34 +17259,37 @@
       <c r="F50" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>79</v>
+      <c r="G50" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="245.1" customHeight="1">
+    <row r="51" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C51" s="6">
         <v>0.54166666666666663</v>
@@ -17172,34 +17303,34 @@
       <c r="F51" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>79</v>
+      <c r="G51" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="245.1" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C52" s="6">
         <v>0.54166666666666663</v>
@@ -17213,34 +17344,34 @@
       <c r="F52" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>79</v>
+      <c r="G52" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="245.1" customHeight="1">
+    <row r="53" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C53" s="6">
         <v>0.54166666666666663</v>
@@ -17254,34 +17385,34 @@
       <c r="F53" s="6">
         <v>0.59375</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>79</v>
+      <c r="G53" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="245.1" customHeight="1">
+    <row r="54" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C54" s="6">
         <v>0.54166666666666663</v>
@@ -17295,34 +17426,34 @@
       <c r="F54" s="6">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G54" s="22" t="s">
-        <v>79</v>
+      <c r="G54" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="245.1" customHeight="1">
+    <row r="55" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C55" s="6">
         <v>0.61458333333333337</v>
@@ -17336,35 +17467,37 @@
       <c r="F55" s="6">
         <v>0.62083333333333335</v>
       </c>
-      <c r="G55" s="25" t="s">
-        <v>22</v>
+      <c r="G55" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="N55" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="56" spans="1:14" ht="245.1" customHeight="1">
+    <row r="56" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C56" s="6">
         <v>0.61458333333333337</v>
@@ -17378,35 +17511,34 @@
       <c r="F56" s="6">
         <v>0.62708333333333333</v>
       </c>
-      <c r="G56" s="25" t="s">
-        <v>22</v>
+      <c r="G56" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s">
+        <v>215</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="N56" s="19"/>
-    </row>
-    <row r="57" spans="1:14" ht="245.1" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C57" s="6">
         <v>0.61458333333333337</v>
@@ -17420,35 +17552,34 @@
       <c r="F57" s="6">
         <v>0.6333333333333333</v>
       </c>
-      <c r="G57" s="25" t="s">
-        <v>22</v>
+      <c r="G57" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I57" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M57" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="58" spans="1:14" ht="245.1" customHeight="1">
+    <row r="58" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C58" s="6">
         <v>0.61458333333333337</v>
@@ -17462,35 +17593,34 @@
       <c r="F58" s="6">
         <v>0.63958333333333328</v>
       </c>
-      <c r="G58" s="25" t="s">
-        <v>22</v>
+      <c r="G58" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I58" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="N58" s="19"/>
+        <v>222</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" ht="245.1" customHeight="1">
+    <row r="59" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C59" s="6">
         <v>0.61458333333333337</v>
@@ -17504,35 +17634,34 @@
       <c r="F59" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G59" s="25" t="s">
-        <v>22</v>
+      <c r="G59" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I59" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N59" s="19"/>
+        <v>225</v>
+      </c>
     </row>
-    <row r="60" spans="1:14" ht="245.1" customHeight="1">
+    <row r="60" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C60" s="6">
         <v>0.61458333333333337</v>
@@ -17546,35 +17675,34 @@
       <c r="F60" s="6">
         <v>0.67569444444444449</v>
       </c>
-      <c r="G60" s="25" t="s">
-        <v>22</v>
+      <c r="G60" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I60" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s">
-        <v>218</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="N60" s="19"/>
+        <v>227</v>
+      </c>
+      <c r="M60" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="61" spans="1:14" ht="245.1" customHeight="1">
+    <row r="61" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C61" s="6">
         <v>0.61458333333333337</v>
@@ -17588,35 +17716,34 @@
       <c r="F61" s="6">
         <v>0.65833333333333333</v>
       </c>
-      <c r="G61" s="25" t="s">
-        <v>22</v>
+      <c r="G61" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I61" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M61" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="N61" s="19"/>
+        <v>230</v>
+      </c>
+      <c r="M61" s="30" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="62" spans="1:14" ht="245.1" customHeight="1">
+    <row r="62" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C62" s="6">
         <v>0.61458333333333337</v>
@@ -17630,35 +17757,34 @@
       <c r="F62" s="6">
         <v>0.6645833333333333</v>
       </c>
-      <c r="G62" s="25" t="s">
-        <v>22</v>
+      <c r="G62" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I62" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L62" t="s">
-        <v>224</v>
-      </c>
-      <c r="M62" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="N62" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="M62" s="30" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="63" spans="1:14" ht="245.1" customHeight="1">
+    <row r="63" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C63" s="6">
         <v>0.61458333333333337</v>
@@ -17672,35 +17798,34 @@
       <c r="F63" s="6">
         <v>0.6694444444444444</v>
       </c>
-      <c r="G63" s="25" t="s">
-        <v>22</v>
+      <c r="G63" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I63" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M63" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="N63" s="19"/>
+        <v>236</v>
+      </c>
+      <c r="M63" s="30" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="64" spans="1:14" ht="245.1" customHeight="1">
+    <row r="64" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C64" s="6">
         <v>0.61458333333333337</v>
@@ -17714,35 +17839,34 @@
       <c r="F64" s="6">
         <v>0.65208333333333335</v>
       </c>
-      <c r="G64" s="25" t="s">
-        <v>22</v>
+      <c r="G64" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M64" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="N64" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="M64" s="30" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" ht="409.6">
+    <row r="65" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C65" s="6">
         <v>0.61458333333333337</v>
@@ -17756,34 +17880,37 @@
       <c r="F65" s="6">
         <v>0.62847222222222221</v>
       </c>
-      <c r="G65" s="25" t="s">
-        <v>79</v>
+      <c r="G65" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="409.6">
+    <row r="66" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C66" s="6">
         <v>0.61458333333333337</v>
@@ -17797,34 +17924,34 @@
       <c r="F66" s="6">
         <v>0.64236111111111116</v>
       </c>
-      <c r="G66" s="25" t="s">
-        <v>79</v>
+      <c r="G66" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M66" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="409.6">
-      <c r="A67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C67" s="6">
         <v>0.61458333333333337</v>
@@ -17838,34 +17965,34 @@
       <c r="F67" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G67" s="25" t="s">
-        <v>79</v>
+      <c r="G67" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="409.6">
+    <row r="68" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C68" s="6">
         <v>0.61458333333333337</v>
@@ -17879,34 +18006,34 @@
       <c r="F68" s="6">
         <v>0.67013888888888884</v>
       </c>
-      <c r="G68" s="25" t="s">
-        <v>79</v>
+      <c r="G68" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="K68" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L68" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="L68" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="M68" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="409.6">
+    <row r="69" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C69" s="6">
         <v>0.61458333333333337</v>
@@ -17920,28 +18047,37 @@
       <c r="F69" s="6">
         <v>0.625</v>
       </c>
-      <c r="G69" s="26" t="s">
-        <v>42</v>
+      <c r="G69" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
+      </c>
+      <c r="N69" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="409.6">
+    <row r="70" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C70" s="6">
         <v>0.61458333333333337</v>
@@ -17955,34 +18091,34 @@
       <c r="F70" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>42</v>
+      <c r="G70" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="409.6">
+    <row r="71" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C71" s="6">
         <v>0.61458333333333337</v>
@@ -17996,34 +18132,34 @@
       <c r="F71" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G71" s="26" t="s">
-        <v>42</v>
+      <c r="G71" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M71" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="409.6">
-      <c r="A72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="C72" s="6">
         <v>0.61458333333333337</v>
@@ -18037,34 +18173,34 @@
       <c r="F72" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G72" s="26" t="s">
-        <v>42</v>
+      <c r="G72" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="409.6">
+    <row r="73" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C73" s="6">
         <v>0.61458333333333337</v>
@@ -18078,34 +18214,34 @@
       <c r="F73" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G73" s="23" t="s">
-        <v>42</v>
+      <c r="G73" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="L73" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="74" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C74" s="6">
         <v>0.61458333333333337</v>
@@ -18119,34 +18255,37 @@
       <c r="F74" s="6">
         <v>0.625</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>59</v>
+      <c r="G74" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>269</v>
+        <v>280</v>
+      </c>
+      <c r="N74" s="32" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="75" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C75" s="6">
         <v>0.61458333333333337</v>
@@ -18160,34 +18299,35 @@
       <c r="F75" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G75" s="22" t="s">
-        <v>59</v>
+      <c r="G75" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>272</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N75" s="32"/>
     </row>
-    <row r="76" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="76" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C76" s="6">
         <v>0.61458333333333337</v>
@@ -18201,34 +18341,35 @@
       <c r="F76" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G76" s="22" t="s">
-        <v>59</v>
+      <c r="G76" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L76" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="N76" s="32"/>
+    </row>
+    <row r="77" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="10" customFormat="1" ht="409.6">
-      <c r="A77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C77" s="6">
         <v>0.61458333333333337</v>
@@ -18242,34 +18383,35 @@
       <c r="F77" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G77" s="22" t="s">
-        <v>59</v>
+      <c r="G77" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>278</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N77" s="32"/>
     </row>
-    <row r="78" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="78" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C78" s="6">
         <v>0.61458333333333337</v>
@@ -18283,34 +18425,35 @@
       <c r="F78" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G78" s="22" t="s">
-        <v>59</v>
+      <c r="G78" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>280</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N78" s="32"/>
     </row>
-    <row r="79" spans="1:13" ht="409.6">
+    <row r="79" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C79" s="6">
         <v>0.61458333333333337</v>
@@ -18324,31 +18467,37 @@
       <c r="F79" s="6">
         <v>0.625</v>
       </c>
-      <c r="G79" s="22" t="s">
-        <v>99</v>
+      <c r="G79" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="409.6">
+    <row r="80" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C80" s="6">
         <v>0.61458333333333337</v>
@@ -18362,31 +18511,34 @@
       <c r="F80" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G80" s="22" t="s">
-        <v>99</v>
+      <c r="G80" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="409.6">
+    <row r="81" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C81" s="6">
         <v>0.61458333333333337</v>
@@ -18400,31 +18552,34 @@
       <c r="F81" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G81" s="22" t="s">
-        <v>99</v>
+      <c r="G81" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="409.6">
+    <row r="82" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C82" s="6">
         <v>0.61458333333333337</v>
@@ -18438,31 +18593,34 @@
       <c r="F82" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G82" s="22" t="s">
-        <v>99</v>
+      <c r="G82" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="409.6">
+    <row r="83" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C83" s="6">
         <v>0.61458333333333337</v>
@@ -18476,31 +18634,34 @@
       <c r="F83" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G83" s="22" t="s">
-        <v>99</v>
+      <c r="G83" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="84" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C84" s="6">
         <v>0.61458333333333337</v>
@@ -18514,34 +18675,37 @@
       <c r="F84" s="6">
         <v>0.625</v>
       </c>
-      <c r="G84" s="22" t="s">
-        <v>296</v>
+      <c r="G84" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>302</v>
+        <v>318</v>
+      </c>
+      <c r="N84" s="32" t="s">
+        <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="85" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C85" s="6">
         <v>0.61458333333333337</v>
@@ -18555,34 +18719,35 @@
       <c r="F85" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G85" s="22" t="s">
-        <v>296</v>
+      <c r="G85" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>305</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N85" s="32"/>
     </row>
-    <row r="86" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="86" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C86" s="6">
         <v>0.61458333333333337</v>
@@ -18596,34 +18761,35 @@
       <c r="F86" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G86" s="22" t="s">
-        <v>296</v>
+      <c r="G86" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>307</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N86" s="32"/>
     </row>
-    <row r="87" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="87" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C87" s="6">
         <v>0.61458333333333337</v>
@@ -18637,34 +18803,35 @@
       <c r="F87" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G87" s="22" t="s">
-        <v>296</v>
+      <c r="G87" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>309</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N87" s="32"/>
     </row>
-    <row r="88" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="88" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C88" s="6">
         <v>0.61458333333333337</v>
@@ -18678,34 +18845,35 @@
       <c r="F88" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G88" s="22" t="s">
-        <v>296</v>
+      <c r="G88" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>312</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N88" s="32"/>
     </row>
-    <row r="89" spans="1:13" s="10" customFormat="1">
+    <row r="89" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C89" s="6">
         <v>0.67708333333333337</v>
@@ -18715,18 +18883,19 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="21"/>
       <c r="H89" s="12"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="M89" s="14"/>
+      <c r="N89" s="32"/>
     </row>
-    <row r="90" spans="1:13" s="10" customFormat="1">
+    <row r="90" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C90" s="6">
         <v>0.69791666666666663</v>
@@ -18736,54 +18905,55 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="22"/>
+      <c r="G90" s="21"/>
       <c r="H90" s="12"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="M90" s="14"/>
+      <c r="N90" s="32"/>
     </row>
-    <row r="91" spans="1:13" ht="16.5">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C91" s="24">
+        <v>332</v>
+      </c>
+      <c r="C91" s="23">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="23">
         <v>0.8125</v>
       </c>
-      <c r="G91" s="22" t="s">
-        <v>59</v>
+      <c r="G91" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="16.5">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C92" s="24">
+        <v>333</v>
+      </c>
+      <c r="C92" s="23">
         <v>0.8125</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="23">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G92" s="22" t="s">
-        <v>59</v>
+      <c r="G92" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="93" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C93" s="6">
         <v>0.375</v>
@@ -18797,34 +18967,37 @@
       <c r="F93" s="6">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G93" s="22" t="s">
-        <v>22</v>
+      <c r="G93" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>324</v>
+        <v>341</v>
+      </c>
+      <c r="N93" s="32" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="94" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C94" s="6">
         <v>0.375</v>
@@ -18838,34 +19011,35 @@
       <c r="F94" s="6">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G94" s="22" t="s">
-        <v>22</v>
+      <c r="G94" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>327</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N94" s="32"/>
     </row>
-    <row r="95" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="95" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C95" s="6">
         <v>0.375</v>
@@ -18879,34 +19053,35 @@
       <c r="F95" s="6">
         <v>0.40625</v>
       </c>
-      <c r="G95" s="22" t="s">
-        <v>22</v>
+      <c r="G95" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>330</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N95" s="32"/>
     </row>
-    <row r="96" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="96" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C96" s="6">
         <v>0.375</v>
@@ -18920,34 +19095,35 @@
       <c r="F96" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G96" s="22" t="s">
-        <v>22</v>
+      <c r="G96" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>333</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N96" s="32"/>
     </row>
-    <row r="97" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="97" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C97" s="6">
         <v>0.375</v>
@@ -18961,34 +19137,35 @@
       <c r="F97" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G97" s="22" t="s">
-        <v>22</v>
+      <c r="G97" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="I97" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="M97" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="N97" s="32"/>
+    </row>
+    <row r="98" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J97" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="K97" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="L97" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="M97" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="409.6">
-      <c r="A98" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="B98" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C98" s="6">
         <v>0.375</v>
@@ -19002,34 +19179,37 @@
       <c r="F98" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G98" s="22" t="s">
-        <v>42</v>
+      <c r="G98" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>343</v>
+        <v>361</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="409.6">
+    <row r="99" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C99" s="6">
         <v>0.375</v>
@@ -19043,34 +19223,34 @@
       <c r="F99" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G99" s="22" t="s">
-        <v>42</v>
+      <c r="G99" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="409.6">
+    <row r="100" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C100" s="6">
         <v>0.375</v>
@@ -19084,34 +19264,34 @@
       <c r="F100" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G100" s="22" t="s">
-        <v>42</v>
+      <c r="G100" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="409.6">
+    <row r="101" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C101" s="6">
         <v>0.375</v>
@@ -19125,34 +19305,34 @@
       <c r="F101" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G101" s="22" t="s">
-        <v>42</v>
+      <c r="G101" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="102" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C102" s="6">
         <v>0.375</v>
@@ -19166,34 +19346,37 @@
       <c r="F102" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G102" s="22" t="s">
-        <v>99</v>
+      <c r="G102" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>359</v>
+        <v>378</v>
+      </c>
+      <c r="N102" s="32" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="103" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C103" s="6">
         <v>0.375</v>
@@ -19207,34 +19390,35 @@
       <c r="F103" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G103" s="22" t="s">
-        <v>99</v>
+      <c r="G103" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>362</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N103" s="32"/>
     </row>
-    <row r="104" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="104" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C104" s="6">
         <v>0.375</v>
@@ -19248,34 +19432,35 @@
       <c r="F104" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G104" s="22" t="s">
-        <v>99</v>
+      <c r="G104" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>364</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N104" s="32"/>
     </row>
-    <row r="105" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="105" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C105" s="6">
         <v>0.375</v>
@@ -19289,239 +19474,243 @@
       <c r="F105" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G105" s="22" t="s">
-        <v>99</v>
+      <c r="G105" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>367</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N105" s="32"/>
     </row>
-    <row r="106" spans="1:13" ht="409.6">
+    <row r="106" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C106" s="24">
+        <v>388</v>
+      </c>
+      <c r="C106" s="23">
         <v>0.375</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="23">
         <v>0.4375</v>
       </c>
-      <c r="E106" s="24">
+      <c r="E106" s="23">
         <v>0.375</v>
       </c>
-      <c r="F106" s="24">
+      <c r="F106" s="23">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>59</v>
+      <c r="G106" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>373</v>
+        <v>393</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="409.6">
+    <row r="107" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C107" s="24">
+        <v>388</v>
+      </c>
+      <c r="C107" s="23">
         <v>0.375</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="23">
         <v>0.4375</v>
       </c>
-      <c r="E107" s="24">
+      <c r="E107" s="23">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F107" s="24">
+      <c r="F107" s="23">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>59</v>
+      <c r="G107" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="409.6">
+    <row r="108" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C108" s="24">
+        <v>388</v>
+      </c>
+      <c r="C108" s="23">
         <v>0.375</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="23">
         <v>0.4375</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="23">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F108" s="23">
         <v>0.40625</v>
       </c>
-      <c r="G108" s="23" t="s">
-        <v>59</v>
+      <c r="G108" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="409.6">
+    <row r="109" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C109" s="24">
+        <v>388</v>
+      </c>
+      <c r="C109" s="23">
         <v>0.375</v>
       </c>
       <c r="D109" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="23">
         <v>0.40625</v>
       </c>
-      <c r="F109" s="24">
+      <c r="F109" s="23">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>59</v>
+      <c r="G109" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="409.6">
+    <row r="110" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C110" s="24">
+        <v>388</v>
+      </c>
+      <c r="C110" s="23">
         <v>0.375</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="23">
         <v>0.4375</v>
       </c>
-      <c r="E110" s="24">
+      <c r="E110" s="23">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F110" s="24">
+      <c r="F110" s="23">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>59</v>
+      <c r="G110" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="219" customHeight="1">
+    <row r="111" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C111" s="6">
         <v>0.375</v>
@@ -19535,34 +19724,37 @@
       <c r="F111" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G111" s="22" t="s">
-        <v>79</v>
+      <c r="G111" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>390</v>
+        <v>410</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="219" customHeight="1">
+    <row r="112" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C112" s="6">
         <v>0.375</v>
@@ -19576,34 +19768,34 @@
       <c r="F112" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G112" s="22" t="s">
-        <v>79</v>
+      <c r="G112" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="219" customHeight="1">
+    <row r="113" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C113" s="6">
         <v>0.375</v>
@@ -19617,34 +19809,34 @@
       <c r="F113" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G113" s="22" t="s">
-        <v>79</v>
+      <c r="G113" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="219" customHeight="1">
+    <row r="114" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C114" s="6">
         <v>0.375</v>
@@ -19658,34 +19850,34 @@
       <c r="F114" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>79</v>
+      <c r="G114" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="C115" s="6">
         <v>0.4375</v>
@@ -19695,12 +19887,12 @@
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C116" s="6">
         <v>0.4375</v>
@@ -19710,12 +19902,12 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C117" s="6">
         <v>0.45833333333333331</v>
@@ -19725,12 +19917,12 @@
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C118" s="6">
         <v>0.5</v>
@@ -19739,12 +19931,12 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="409.6">
+    <row r="119" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C119" s="6">
         <v>0.53125</v>
@@ -19758,34 +19950,37 @@
       <c r="F119" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G119" s="22" t="s">
-        <v>42</v>
+      <c r="G119" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>409</v>
+        <v>430</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="409.6">
+    <row r="120" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C120" s="6">
         <v>0.53125</v>
@@ -19799,34 +19994,34 @@
       <c r="F120" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G120" s="22" t="s">
-        <v>42</v>
+      <c r="G120" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="409.6">
+    <row r="121" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C121" s="6">
         <v>0.53125</v>
@@ -19840,34 +20035,34 @@
       <c r="F121" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G121" s="22" t="s">
-        <v>42</v>
+      <c r="G121" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="409.6">
+    <row r="122" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C122" s="6">
         <v>0.53125</v>
@@ -19881,34 +20076,34 @@
       <c r="F122" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G122" s="22" t="s">
-        <v>42</v>
+      <c r="G122" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="409.6">
+    <row r="123" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C123" s="6">
         <v>0.53125</v>
@@ -19922,34 +20117,34 @@
       <c r="F123" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G123" s="22" t="s">
-        <v>42</v>
+      <c r="G123" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="201.95" customHeight="1">
+    <row r="124" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C124" s="6">
         <v>0.53125</v>
@@ -19963,34 +20158,37 @@
       <c r="F124" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>22</v>
+      <c r="G124" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>428</v>
+        <v>449</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="201.95" customHeight="1">
+    <row r="125" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C125" s="6">
         <v>0.53125</v>
@@ -20004,34 +20202,34 @@
       <c r="F125" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G125" s="22" t="s">
-        <v>22</v>
+      <c r="G125" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="201.95" customHeight="1">
+    <row r="126" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C126" s="6">
         <v>0.53125</v>
@@ -20045,34 +20243,34 @@
       <c r="F126" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G126" s="22" t="s">
-        <v>22</v>
+      <c r="G126" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="201.95" customHeight="1">
+    <row r="127" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C127" s="6">
         <v>0.53125</v>
@@ -20086,34 +20284,34 @@
       <c r="F127" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G127" s="22" t="s">
-        <v>22</v>
+      <c r="G127" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="201.95" customHeight="1">
+    <row r="128" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C128" s="6">
         <v>0.53125</v>
@@ -20127,34 +20325,34 @@
       <c r="F128" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G128" s="22" t="s">
-        <v>22</v>
+      <c r="G128" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
+    <row r="129" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C129" s="6">
         <v>0.53125</v>
@@ -20168,34 +20366,37 @@
       <c r="F129" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G129" s="22" t="s">
-        <v>99</v>
+      <c r="G129" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>445</v>
+        <v>466</v>
+      </c>
+      <c r="N129" s="32" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
+    <row r="130" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C130" s="6">
         <v>0.53125</v>
@@ -20209,34 +20410,35 @@
       <c r="F130" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G130" s="22" t="s">
-        <v>99</v>
+      <c r="G130" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>448</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N130" s="32"/>
     </row>
-    <row r="131" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
+    <row r="131" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C131" s="6">
         <v>0.53125</v>
@@ -20250,34 +20452,35 @@
       <c r="F131" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G131" s="22" t="s">
-        <v>99</v>
+      <c r="G131" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>451</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N131" s="32"/>
     </row>
-    <row r="132" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
+    <row r="132" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C132" s="6">
         <v>0.53125</v>
@@ -20291,34 +20494,35 @@
       <c r="F132" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G132" s="22" t="s">
-        <v>99</v>
+      <c r="G132" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>454</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N132" s="32"/>
     </row>
-    <row r="133" spans="1:13" s="10" customFormat="1" ht="206.1" customHeight="1">
+    <row r="133" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C133" s="6">
         <v>0.53125</v>
@@ -20332,34 +20536,35 @@
       <c r="F133" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G133" s="22" t="s">
-        <v>99</v>
+      <c r="G133" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>457</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N133" s="32"/>
     </row>
-    <row r="134" spans="1:13" ht="409.6">
+    <row r="134" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C134" s="6">
         <v>0.53125</v>
@@ -20373,34 +20578,37 @@
       <c r="F134" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G134" s="22" t="s">
-        <v>79</v>
+      <c r="G134" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>463</v>
+        <v>485</v>
+      </c>
+      <c r="N134" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="409.6">
+    <row r="135" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C135" s="6">
         <v>0.53125</v>
@@ -20414,34 +20622,34 @@
       <c r="F135" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G135" s="22" t="s">
-        <v>79</v>
+      <c r="G135" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="409.6">
+    <row r="136" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C136" s="6">
         <v>0.53125</v>
@@ -20455,34 +20663,34 @@
       <c r="F136" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G136" s="22" t="s">
-        <v>79</v>
+      <c r="G136" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="409.6">
+    <row r="137" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C137" s="6">
         <v>0.53125</v>
@@ -20496,34 +20704,34 @@
       <c r="F137" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G137" s="22" t="s">
-        <v>79</v>
+      <c r="G137" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="409.6">
+    <row r="138" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C138" s="6">
         <v>0.53125</v>
@@ -20537,34 +20745,34 @@
       <c r="F138" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G138" s="22" t="s">
-        <v>79</v>
+      <c r="G138" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="139" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C139" s="6">
         <v>0.53125</v>
@@ -20578,34 +20786,37 @@
       <c r="F139" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G139" s="23" t="s">
-        <v>59</v>
+      <c r="G139" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>482</v>
+        <v>504</v>
+      </c>
+      <c r="N139" s="32" t="s">
+        <v>505</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="140" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C140" s="6">
         <v>0.53125</v>
@@ -20619,34 +20830,35 @@
       <c r="F140" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="G140" s="23" t="s">
-        <v>59</v>
+      <c r="G140" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>485</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N140" s="32"/>
     </row>
-    <row r="141" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="141" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C141" s="6">
         <v>0.53125</v>
@@ -20660,34 +20872,35 @@
       <c r="F141" s="6">
         <v>0.5625</v>
       </c>
-      <c r="G141" s="23" t="s">
-        <v>59</v>
+      <c r="G141" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>488</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N141" s="32"/>
     </row>
-    <row r="142" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="142" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C142" s="6">
         <v>0.53125</v>
@@ -20701,34 +20914,35 @@
       <c r="F142" s="6">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G142" s="23" t="s">
-        <v>59</v>
+      <c r="G142" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>490</v>
+        <v>502</v>
+      </c>
+      <c r="L142" s="32" t="s">
+        <v>505</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>491</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N142" s="32"/>
     </row>
-    <row r="143" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="143" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C143" s="6">
         <v>0.53125</v>
@@ -20742,34 +20956,35 @@
       <c r="F143" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G143" s="23" t="s">
-        <v>59</v>
+      <c r="G143" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>494</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N143" s="32"/>
     </row>
-    <row r="146" spans="1:13" ht="409.6">
+    <row r="146" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C146" s="11">
         <v>0.60416666666666663</v>
@@ -20783,34 +20998,37 @@
       <c r="F146" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="G146" s="22" t="s">
-        <v>22</v>
+      <c r="G146" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>501</v>
+        <v>522</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="409.6">
+    <row r="147" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C147" s="11">
         <v>0.60416666666666663</v>
@@ -20824,34 +21042,34 @@
       <c r="F147" s="6">
         <v>0.625</v>
       </c>
-      <c r="G147" s="22" t="s">
-        <v>22</v>
+      <c r="G147" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="409.6">
+    <row r="148" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C148" s="11">
         <v>0.60416666666666663</v>
@@ -20865,34 +21083,34 @@
       <c r="F148" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G148" s="22" t="s">
-        <v>22</v>
+      <c r="G148" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="409.6">
+    <row r="149" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C149" s="11">
         <v>0.60416666666666663</v>
@@ -20906,34 +21124,34 @@
       <c r="F149" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G149" s="22" t="s">
-        <v>22</v>
+      <c r="G149" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="409.6">
+    <row r="150" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C150" s="11">
         <v>0.60416666666666663</v>
@@ -20947,34 +21165,34 @@
       <c r="F150" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G150" s="22" t="s">
-        <v>22</v>
+      <c r="G150" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="151" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C151" s="11">
         <v>0.60416666666666663</v>
@@ -20988,34 +21206,37 @@
       <c r="F151" s="11">
         <v>0.61805555555555558</v>
       </c>
-      <c r="G151" s="23" t="s">
-        <v>59</v>
+      <c r="G151" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="K151" s="14" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>519</v>
+        <v>540</v>
+      </c>
+      <c r="N151" s="32" t="s">
+        <v>541</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="152" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C152" s="11">
         <v>0.60416666666666663</v>
@@ -21029,34 +21250,35 @@
       <c r="F152" s="11">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G152" s="23" t="s">
-        <v>59</v>
+      <c r="G152" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="K152" s="14" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>522</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N152" s="32"/>
     </row>
-    <row r="153" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="153" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C153" s="11">
         <v>0.60416666666666663</v>
@@ -21070,34 +21292,35 @@
       <c r="F153" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G153" s="23" t="s">
-        <v>59</v>
+      <c r="G153" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="K153" s="14" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>525</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="N153" s="32"/>
     </row>
-    <row r="154" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="154" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C154" s="11">
         <v>0.60416666666666663</v>
@@ -21111,34 +21334,35 @@
       <c r="F154" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G154" s="23" t="s">
-        <v>59</v>
+      <c r="G154" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>528</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N154" s="32"/>
     </row>
-    <row r="155" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="155" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C155" s="11">
         <v>0.60416666666666663</v>
@@ -21152,34 +21376,37 @@
       <c r="F155" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="G155" s="22" t="s">
-        <v>99</v>
+      <c r="G155" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>535</v>
+        <v>557</v>
+      </c>
+      <c r="N155" s="32" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="156" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C156" s="11">
         <v>0.60416666666666663</v>
@@ -21193,34 +21420,35 @@
       <c r="F156" s="6">
         <v>0.625</v>
       </c>
-      <c r="G156" s="22" t="s">
-        <v>99</v>
+      <c r="G156" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>538</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="N156" s="32"/>
     </row>
-    <row r="157" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="157" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C157" s="11">
         <v>0.60416666666666663</v>
@@ -21234,34 +21462,35 @@
       <c r="F157" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G157" s="22" t="s">
-        <v>99</v>
+      <c r="G157" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>541</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N157" s="32"/>
     </row>
-    <row r="158" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="158" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C158" s="11">
         <v>0.60416666666666663</v>
@@ -21275,34 +21504,35 @@
       <c r="F158" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G158" s="22" t="s">
-        <v>99</v>
+      <c r="G158" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>544</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N158" s="32"/>
     </row>
-    <row r="159" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="159" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C159" s="11">
         <v>0.60416666666666663</v>
@@ -21316,34 +21546,35 @@
       <c r="F159" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G159" s="22" t="s">
-        <v>99</v>
+      <c r="G159" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>547</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N159" s="32"/>
     </row>
-    <row r="160" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="160" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C160" s="11">
         <v>0.60416666666666663</v>
@@ -21357,34 +21588,37 @@
       <c r="F160" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="G160" s="22" t="s">
-        <v>42</v>
+      <c r="G160" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L160" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>553</v>
+        <v>576</v>
+      </c>
+      <c r="N160" s="32" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="161" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C161" s="11">
         <v>0.60416666666666663</v>
@@ -21398,34 +21632,35 @@
       <c r="F161" s="6">
         <v>0.625</v>
       </c>
-      <c r="G161" s="22" t="s">
-        <v>42</v>
+      <c r="G161" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>556</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N161" s="32"/>
     </row>
-    <row r="162" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="162" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C162" s="11">
         <v>0.60416666666666663</v>
@@ -21439,34 +21674,35 @@
       <c r="F162" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G162" s="22" t="s">
-        <v>42</v>
+      <c r="G162" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>558</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N162" s="32"/>
     </row>
-    <row r="163" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="163" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C163" s="11">
         <v>0.60416666666666663</v>
@@ -21480,34 +21716,35 @@
       <c r="F163" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G163" s="22" t="s">
-        <v>42</v>
+      <c r="G163" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="M163" s="20" t="s">
-        <v>561</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M163" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="N163" s="32"/>
     </row>
-    <row r="164" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="164" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C164" s="11">
         <v>0.60416666666666663</v>
@@ -21521,34 +21758,35 @@
       <c r="F164" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G164" s="22" t="s">
-        <v>42</v>
+      <c r="G164" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>564</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="N164" s="32"/>
     </row>
-    <row r="165" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="165" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C165" s="11">
         <v>0.60416666666666663</v>
@@ -21562,34 +21800,37 @@
       <c r="F165" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="G165" s="22" t="s">
-        <v>79</v>
+      <c r="G165" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>571</v>
+        <v>594</v>
+      </c>
+      <c r="N165" s="32" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="166" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C166" s="11">
         <v>0.60416666666666663</v>
@@ -21603,34 +21844,35 @@
       <c r="F166" s="6">
         <v>0.625</v>
       </c>
-      <c r="G166" s="22" t="s">
-        <v>79</v>
+      <c r="G166" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="J166" s="14" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K166" s="14" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>573</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N166" s="32"/>
     </row>
-    <row r="167" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="167" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C167" s="11">
         <v>0.60416666666666663</v>
@@ -21644,34 +21886,35 @@
       <c r="F167" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G167" s="22" t="s">
-        <v>79</v>
+      <c r="G167" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K167" s="14" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L167" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>575</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N167" s="32"/>
     </row>
-    <row r="168" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="168" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C168" s="11">
         <v>0.60416666666666663</v>
@@ -21685,34 +21928,35 @@
       <c r="F168" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G168" s="22" t="s">
-        <v>79</v>
+      <c r="G168" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K168" s="14" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L168" s="10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>577</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N168" s="32"/>
     </row>
-    <row r="169" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="169" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C169" s="11">
         <v>0.60416666666666663</v>
@@ -21726,34 +21970,35 @@
       <c r="F169" s="6">
         <v>0.65625</v>
       </c>
-      <c r="G169" s="22" t="s">
-        <v>79</v>
+      <c r="G169" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K169" s="14" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="M169" s="14" t="s">
-        <v>579</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N169" s="32"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C170" s="6">
         <v>0.66666666666666663</v>
@@ -21763,12 +22008,12 @@
       </c>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="C171" s="6">
         <v>0.6875</v>
@@ -21778,27 +22023,27 @@
       </c>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="C172" s="1">
         <v>19</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="409.6">
+    <row r="173" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="C173" s="6">
         <v>0.375</v>
@@ -21812,34 +22057,37 @@
       <c r="F173" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G173" s="22" t="s">
-        <v>99</v>
+      <c r="G173" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>590</v>
+        <v>614</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="409.6">
+    <row r="174" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="C174" s="6">
         <v>0.375</v>
@@ -21853,34 +22101,34 @@
       <c r="F174" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G174" s="22" t="s">
-        <v>99</v>
+      <c r="G174" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="409.6">
+    <row r="175" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="C175" s="6">
         <v>0.375</v>
@@ -21894,34 +22142,34 @@
       <c r="F175" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G175" s="22" t="s">
-        <v>99</v>
+      <c r="G175" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="409.6">
+    <row r="176" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="C176" s="6">
         <v>0.375</v>
@@ -21935,34 +22183,34 @@
       <c r="F176" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G176" s="22" t="s">
-        <v>99</v>
+      <c r="G176" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="409.6">
+    <row r="177" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C177" s="6">
         <v>0.375</v>
@@ -21976,34 +22224,37 @@
       <c r="F177" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G177" s="22" t="s">
-        <v>42</v>
+      <c r="G177" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>606</v>
+        <v>631</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="409.6">
+    <row r="178" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C178" s="6">
         <v>0.375</v>
@@ -22017,34 +22268,34 @@
       <c r="F178" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G178" s="22" t="s">
-        <v>42</v>
+      <c r="G178" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="I178" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J178" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="409.6">
-      <c r="A179" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="B179" s="1" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C179" s="6">
         <v>0.375</v>
@@ -22058,34 +22309,34 @@
       <c r="F179" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G179" s="22" t="s">
-        <v>42</v>
+      <c r="G179" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="409.6">
+    <row r="180" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C180" s="6">
         <v>0.375</v>
@@ -22099,34 +22350,34 @@
       <c r="F180" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G180" s="22" t="s">
-        <v>42</v>
+      <c r="G180" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
+    <row r="181" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C181" s="6">
         <v>0.375</v>
@@ -22140,34 +22391,37 @@
       <c r="F181" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G181" s="22" t="s">
-        <v>79</v>
+      <c r="G181" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="K181" s="14" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>619</v>
+        <v>644</v>
+      </c>
+      <c r="N181" s="32" t="s">
+        <v>645</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
+    <row r="182" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C182" s="6">
         <v>0.375</v>
@@ -22181,34 +22435,35 @@
       <c r="F182" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G182" s="22" t="s">
-        <v>79</v>
+      <c r="G182" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="J182" s="14" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="K182" s="14" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="L182" s="10" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="M182" s="14" t="s">
-        <v>622</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="N182" s="32"/>
     </row>
-    <row r="183" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
+    <row r="183" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C183" s="6">
         <v>0.375</v>
@@ -22222,34 +22477,35 @@
       <c r="F183" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G183" s="22" t="s">
-        <v>79</v>
+      <c r="G183" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="K183" s="14" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="M183" s="28" t="s">
-        <v>625</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="M183" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="N183" s="32"/>
     </row>
-    <row r="184" spans="1:13" s="10" customFormat="1" ht="222.95" customHeight="1">
+    <row r="184" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C184" s="6">
         <v>0.375</v>
@@ -22263,34 +22519,35 @@
       <c r="F184" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G184" s="22" t="s">
-        <v>79</v>
+      <c r="G184" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="J184" s="14" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="K184" s="14" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="M184" s="28" t="s">
-        <v>627</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="M184" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="N184" s="32"/>
     </row>
-    <row r="185" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="185" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C185" s="6">
         <v>0.375</v>
@@ -22304,34 +22561,37 @@
       <c r="F185" s="6">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G185" s="23" t="s">
-        <v>59</v>
+      <c r="G185" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="K185" s="14" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="M185" s="14" t="s">
-        <v>634</v>
+        <v>660</v>
+      </c>
+      <c r="N185" s="32" t="s">
+        <v>661</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="186" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C186" s="6">
         <v>0.375</v>
@@ -22345,34 +22605,35 @@
       <c r="F186" s="6">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G186" s="23" t="s">
-        <v>59</v>
+      <c r="G186" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="K186" s="14" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="L186" s="10" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="M186" s="14" t="s">
-        <v>637</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="N186" s="32"/>
     </row>
-    <row r="187" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="187" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C187" s="6">
         <v>0.375</v>
@@ -22386,34 +22647,35 @@
       <c r="F187" s="6">
         <v>0.40625</v>
       </c>
-      <c r="G187" s="23" t="s">
-        <v>59</v>
+      <c r="G187" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="K187" s="14" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="M187" s="14" t="s">
-        <v>640</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="N187" s="32"/>
     </row>
-    <row r="188" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="188" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C188" s="6">
         <v>0.375</v>
@@ -22427,34 +22689,35 @@
       <c r="F188" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G188" s="23" t="s">
-        <v>59</v>
+      <c r="G188" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="J188" s="14" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="K188" s="14" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="L188" s="10" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>643</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="N188" s="32"/>
     </row>
-    <row r="189" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="189" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C189" s="6">
         <v>0.375</v>
@@ -22468,34 +22731,35 @@
       <c r="F189" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G189" s="23" t="s">
-        <v>59</v>
+      <c r="G189" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="J189" s="14" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="K189" s="14" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="M189" s="14" t="s">
-        <v>646</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="N189" s="32"/>
     </row>
-    <row r="190" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="190" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A190" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="C190" s="6">
         <v>0.375</v>
@@ -22509,34 +22773,37 @@
       <c r="F190" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G190" s="22" t="s">
-        <v>22</v>
+      <c r="G190" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>652</v>
+        <v>679</v>
+      </c>
+      <c r="N190" s="32" t="s">
+        <v>680</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="191" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="C191" s="6">
         <v>0.375</v>
@@ -22550,34 +22817,35 @@
       <c r="F191" s="6">
         <v>0.40277777777777779</v>
       </c>
-      <c r="G191" s="22" t="s">
-        <v>22</v>
+      <c r="G191" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>654</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="N191" s="32"/>
     </row>
-    <row r="192" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="192" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="C192" s="6">
         <v>0.375</v>
@@ -22591,34 +22859,35 @@
       <c r="F192" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G192" s="22" t="s">
-        <v>22</v>
+      <c r="G192" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>657</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="N192" s="32"/>
     </row>
-    <row r="193" spans="1:13" s="10" customFormat="1" ht="409.6">
+    <row r="193" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="C193" s="6">
         <v>0.375</v>
@@ -22632,34 +22901,35 @@
       <c r="F193" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G193" s="22" t="s">
-        <v>22</v>
+      <c r="G193" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>659</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="N193" s="32"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="C194" s="6">
         <v>0.4375</v>
@@ -22669,12 +22939,12 @@
       </c>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C195" s="6">
         <v>0.44791666666666669</v>
@@ -22683,12 +22953,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="C196" s="6">
         <v>0.5</v>
@@ -22697,12 +22967,12 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C197" s="6">
         <v>0.54166666666666663</v>

--- a/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
+++ b/data/excel/PUG_2024_Programm_TalksRooms_1905.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurt\Nextcloud\Uni\shk\Booklet\pug24\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gluth/Arbeit/Conferences_Talks/PuG2024/PuG_2024_Booklet/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D65A94-5959-40A7-B472-07A652683019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37F2EE0-F5E2-4CE9-AA49-549C29447E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1910" windowWidth="29920" windowHeight="18230" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
+    <workbookView xWindow="35880" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50F79AB2-BE02-9945-951E-3A2C179FFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11144,21 +11144,18 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fri-$$-Talk-$-$$$
-Dissociating the roles of automatic episodic retrieval and contingency awareness in contingency learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Fri-$$-Talk-$-$$$
+TALK CANCELLED - Dissociating the roles of automatic episodic retrieval and contingency awareness in contingency learning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 Matthäus Rudolph (1), Carina G. Giesen (2)
@@ -11168,20 +11165,16 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Friedrich-Schiller-Universität Jena</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">, (2) </t>
     </r>
@@ -11189,20 +11182,17 @@
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Health and Medical University Erfurt</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Health and Medical University Erfurt
+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 When we perceive a stimulus, we may respond in a multitude of ways. Often, however, our behavior is not as variable as we would assume. Instead, there is a high likelihood that our current response will equal the response we gave on the last previous occurrence of the very same stimulus. This principle is captured in the law of recency (Giesen et al., 2020), which posits that action control processes often rely on retrieval of previous stimulus-response (SR) episodes from memory. Episodic retrieval will activate the response that was executed during the most recent episode in which the stimulus was presented before. Within the present talk, we will first provide evidence that recency retrieval of SR episodes explains a large part of color-word contingency learning (CL) effects. Still, after controlling for recency retrieval, a residual CL effect remains, which reflects the impact of global contingencies on behavior. Hence, in a second step, we will present data in which we tested the influence of contingency awareness on this residual CL effect by giving true or false instructions about the existing color-word contingencies. We found that the residual CL effect is modulated by awareness, as true (false) instructions amplified (reduced) the residual CL effect. Collectively, our findings suggest that color-word contingency learning is driven by two independent sources: (1) recency-based episodic retrieval which emerges by mere spatial temporal contiguity, and (2) application of contingency knowledge.</t>
@@ -14702,7 +14692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14915,6 +14905,28 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14951,7 +14963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -15055,6 +15067,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15078,9 +15093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15118,7 +15133,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15224,7 +15239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15366,7 +15381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15377,27 +15392,27 @@
   <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M97" sqref="M97"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M153" sqref="M153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="16.83203125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="21.08203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="16.875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="19.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
     <col min="13" max="13" width="22.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="5"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="10.875" style="5"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15441,7 +15456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -15455,7 +15470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -15469,7 +15484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -15486,7 +15501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -15500,7 +15515,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -15514,7 +15529,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="48" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -15558,7 +15573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="90" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -15599,7 +15614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="215.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -15640,7 +15655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="215.1" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -15681,7 +15696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="215.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="215.1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -15722,7 +15737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="213.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -15766,7 +15781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="213.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -15807,7 +15822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="213.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -15848,7 +15863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="213.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -15889,7 +15904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="225.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -15933,7 +15948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="225.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -15974,7 +15989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="225.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -16015,7 +16030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="225.95" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -16056,7 +16071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="226" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="225.95" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -16097,7 +16112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="409.6">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -16141,7 +16156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="409.6">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -16182,7 +16197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="409.6">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -16223,7 +16238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="409.6">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -16264,7 +16279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="409.6">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -16305,7 +16320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="409.6">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -16349,7 +16364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="409.6">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -16390,7 +16405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="409.6">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -16431,7 +16446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="409.6">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -16472,7 +16487,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -16487,7 +16502,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="210" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -16531,7 +16546,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="210" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -16572,7 +16587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="210" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -16613,7 +16628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="210" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -16654,7 +16669,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="210" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -16695,7 +16710,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="409.6">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -16739,7 +16754,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="409.6">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -16780,7 +16795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="409.6">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -16821,7 +16836,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="409.6">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -16862,7 +16877,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
@@ -16906,7 +16921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
@@ -16948,7 +16963,7 @@
       </c>
       <c r="N42" s="32"/>
     </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -16990,7 +17005,7 @@
       </c>
       <c r="N43" s="32"/>
     </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
@@ -17032,7 +17047,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="409.6">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -17076,7 +17091,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="409.6">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -17117,7 +17132,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="409.6">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -17158,7 +17173,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="409.6">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -17199,7 +17214,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="409.6">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -17240,7 +17255,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="245.1" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -17284,7 +17299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="245.1" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -17325,7 +17340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="245.1" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -17366,7 +17381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="245.1" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -17407,7 +17422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="245.1" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -17448,7 +17463,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="245.1" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -17492,7 +17507,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="245.1" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -17533,7 +17548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="245.1" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
@@ -17574,7 +17589,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="245.1" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -17615,7 +17630,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="245.1" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -17656,7 +17671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="245.1" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
@@ -17697,7 +17712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="245.1" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -17738,7 +17753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="245.1" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -17779,7 +17794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="245.1" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
@@ -17820,7 +17835,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="245.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="245.1" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -17861,7 +17876,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="409.6">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -17905,7 +17920,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="409.6">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
@@ -17946,7 +17961,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="409.6">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
@@ -17987,7 +18002,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="409.6">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
@@ -18028,7 +18043,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="409.6">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
@@ -18072,7 +18087,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="409.6">
       <c r="A70" s="1" t="s">
         <v>19</v>
       </c>
@@ -18113,7 +18128,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="409.6">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -18154,7 +18169,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="409.6">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
@@ -18195,7 +18210,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="409.6">
       <c r="A73" s="1" t="s">
         <v>19</v>
       </c>
@@ -18236,7 +18251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A74" s="10" t="s">
         <v>19</v>
       </c>
@@ -18280,7 +18295,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A75" s="10" t="s">
         <v>19</v>
       </c>
@@ -18322,7 +18337,7 @@
       </c>
       <c r="N75" s="32"/>
     </row>
-    <row r="76" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A76" s="10" t="s">
         <v>19</v>
       </c>
@@ -18364,7 +18379,7 @@
       </c>
       <c r="N76" s="32"/>
     </row>
-    <row r="77" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A77" s="10" t="s">
         <v>19</v>
       </c>
@@ -18406,7 +18421,7 @@
       </c>
       <c r="N77" s="32"/>
     </row>
-    <row r="78" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A78" s="10" t="s">
         <v>19</v>
       </c>
@@ -18448,7 +18463,7 @@
       </c>
       <c r="N78" s="32"/>
     </row>
-    <row r="79" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="409.6">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -18492,7 +18507,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="409.6">
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
@@ -18533,7 +18548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="409.6">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -18574,7 +18589,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="409.6">
       <c r="A82" s="1" t="s">
         <v>19</v>
       </c>
@@ -18615,7 +18630,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="409.6">
       <c r="A83" s="1" t="s">
         <v>19</v>
       </c>
@@ -18656,7 +18671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A84" s="10" t="s">
         <v>19</v>
       </c>
@@ -18700,7 +18715,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A85" s="10" t="s">
         <v>19</v>
       </c>
@@ -18742,7 +18757,7 @@
       </c>
       <c r="N85" s="32"/>
     </row>
-    <row r="86" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A86" s="10" t="s">
         <v>19</v>
       </c>
@@ -18784,7 +18799,7 @@
       </c>
       <c r="N86" s="32"/>
     </row>
-    <row r="87" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A87" s="10" t="s">
         <v>19</v>
       </c>
@@ -18826,7 +18841,7 @@
       </c>
       <c r="N87" s="32"/>
     </row>
-    <row r="88" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -18868,7 +18883,7 @@
       </c>
       <c r="N88" s="32"/>
     </row>
-    <row r="89" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="10" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>19</v>
       </c>
@@ -18890,7 +18905,7 @@
       <c r="M89" s="14"/>
       <c r="N89" s="32"/>
     </row>
-    <row r="90" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" s="10" customFormat="1">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -18912,7 +18927,7 @@
       <c r="M90" s="14"/>
       <c r="N90" s="32"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="16.5">
       <c r="A91" s="1" t="s">
         <v>19</v>
       </c>
@@ -18930,7 +18945,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="16.5">
       <c r="A92" s="1" t="s">
         <v>19</v>
       </c>
@@ -18948,7 +18963,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A93" s="10" t="s">
         <v>334</v>
       </c>
@@ -18992,7 +19007,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A94" s="10" t="s">
         <v>334</v>
       </c>
@@ -19034,7 +19049,7 @@
       </c>
       <c r="N94" s="32"/>
     </row>
-    <row r="95" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A95" s="10" t="s">
         <v>334</v>
       </c>
@@ -19076,7 +19091,7 @@
       </c>
       <c r="N95" s="32"/>
     </row>
-    <row r="96" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A96" s="10" t="s">
         <v>334</v>
       </c>
@@ -19118,7 +19133,7 @@
       </c>
       <c r="N96" s="32"/>
     </row>
-    <row r="97" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A97" s="10" t="s">
         <v>334</v>
       </c>
@@ -19160,7 +19175,7 @@
       </c>
       <c r="N97" s="32"/>
     </row>
-    <row r="98" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="409.6">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
@@ -19204,7 +19219,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="409.6">
       <c r="A99" s="1" t="s">
         <v>334</v>
       </c>
@@ -19245,7 +19260,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="409.6">
       <c r="A100" s="1" t="s">
         <v>334</v>
       </c>
@@ -19286,7 +19301,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="409.6">
       <c r="A101" s="1" t="s">
         <v>334</v>
       </c>
@@ -19327,7 +19342,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A102" s="10" t="s">
         <v>334</v>
       </c>
@@ -19371,7 +19386,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A103" s="10" t="s">
         <v>334</v>
       </c>
@@ -19413,7 +19428,7 @@
       </c>
       <c r="N103" s="32"/>
     </row>
-    <row r="104" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A104" s="10" t="s">
         <v>334</v>
       </c>
@@ -19455,7 +19470,7 @@
       </c>
       <c r="N104" s="32"/>
     </row>
-    <row r="105" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A105" s="10" t="s">
         <v>334</v>
       </c>
@@ -19497,7 +19512,7 @@
       </c>
       <c r="N105" s="32"/>
     </row>
-    <row r="106" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="409.6">
       <c r="A106" s="10" t="s">
         <v>334</v>
       </c>
@@ -19541,7 +19556,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="409.6">
       <c r="A107" s="10" t="s">
         <v>334</v>
       </c>
@@ -19582,7 +19597,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="409.6">
       <c r="A108" s="10" t="s">
         <v>334</v>
       </c>
@@ -19623,7 +19638,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="409.6">
       <c r="A109" s="10" t="s">
         <v>334</v>
       </c>
@@ -19664,7 +19679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="409.6">
       <c r="A110" s="10" t="s">
         <v>334</v>
       </c>
@@ -19705,7 +19720,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="219" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>334</v>
       </c>
@@ -19749,7 +19764,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="219" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>334</v>
       </c>
@@ -19790,7 +19805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="219" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>334</v>
       </c>
@@ -19831,7 +19846,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="219" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>334</v>
       </c>
@@ -19872,7 +19887,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>334</v>
       </c>
@@ -19887,7 +19902,7 @@
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>334</v>
       </c>
@@ -19902,7 +19917,7 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>334</v>
       </c>
@@ -19917,7 +19932,7 @@
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>334</v>
       </c>
@@ -19931,7 +19946,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="409.6">
       <c r="A119" s="1" t="s">
         <v>334</v>
       </c>
@@ -19975,7 +19990,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="409.6">
       <c r="A120" s="1" t="s">
         <v>334</v>
       </c>
@@ -20016,7 +20031,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="409.6">
       <c r="A121" s="1" t="s">
         <v>334</v>
       </c>
@@ -20057,7 +20072,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="409.6">
       <c r="A122" s="1" t="s">
         <v>334</v>
       </c>
@@ -20098,7 +20113,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="409.6">
       <c r="A123" s="1" t="s">
         <v>334</v>
       </c>
@@ -20139,7 +20154,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="201.95" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>334</v>
       </c>
@@ -20183,7 +20198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="201.95" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>334</v>
       </c>
@@ -20224,7 +20239,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="201.95" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>334</v>
       </c>
@@ -20265,7 +20280,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="201.95" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>334</v>
       </c>
@@ -20306,7 +20321,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="201.95" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>334</v>
       </c>
@@ -20347,7 +20362,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A129" s="10" t="s">
         <v>334</v>
       </c>
@@ -20391,7 +20406,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A130" s="10" t="s">
         <v>334</v>
       </c>
@@ -20433,7 +20448,7 @@
       </c>
       <c r="N130" s="32"/>
     </row>
-    <row r="131" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A131" s="10" t="s">
         <v>334</v>
       </c>
@@ -20475,7 +20490,7 @@
       </c>
       <c r="N131" s="32"/>
     </row>
-    <row r="132" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A132" s="10" t="s">
         <v>334</v>
       </c>
@@ -20517,7 +20532,7 @@
       </c>
       <c r="N132" s="32"/>
     </row>
-    <row r="133" spans="1:14" s="10" customFormat="1" ht="206.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" s="10" customFormat="1" ht="206.1" customHeight="1">
       <c r="A133" s="10" t="s">
         <v>334</v>
       </c>
@@ -20559,7 +20574,7 @@
       </c>
       <c r="N133" s="32"/>
     </row>
-    <row r="134" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="409.6">
       <c r="A134" s="1" t="s">
         <v>334</v>
       </c>
@@ -20603,7 +20618,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="409.6">
       <c r="A135" s="1" t="s">
         <v>334</v>
       </c>
@@ -20644,7 +20659,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="409.6">
       <c r="A136" s="1" t="s">
         <v>334</v>
       </c>
@@ -20685,7 +20700,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="409.6">
       <c r="A137" s="1" t="s">
         <v>334</v>
       </c>
@@ -20726,7 +20741,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="409.6">
       <c r="A138" s="1" t="s">
         <v>334</v>
       </c>
@@ -20767,7 +20782,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A139" s="1" t="s">
         <v>334</v>
       </c>
@@ -20811,7 +20826,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A140" s="1" t="s">
         <v>334</v>
       </c>
@@ -20853,7 +20868,7 @@
       </c>
       <c r="N140" s="32"/>
     </row>
-    <row r="141" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A141" s="1" t="s">
         <v>334</v>
       </c>
@@ -20895,7 +20910,7 @@
       </c>
       <c r="N141" s="32"/>
     </row>
-    <row r="142" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A142" s="1" t="s">
         <v>334</v>
       </c>
@@ -20937,7 +20952,7 @@
       </c>
       <c r="N142" s="32"/>
     </row>
-    <row r="143" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A143" s="1" t="s">
         <v>334</v>
       </c>
@@ -20979,7 +20994,7 @@
       </c>
       <c r="N143" s="32"/>
     </row>
-    <row r="146" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="409.6">
       <c r="A146" s="1" t="s">
         <v>334</v>
       </c>
@@ -21023,7 +21038,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="409.6">
       <c r="A147" s="1" t="s">
         <v>334</v>
       </c>
@@ -21064,7 +21079,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="409.6">
       <c r="A148" s="1" t="s">
         <v>334</v>
       </c>
@@ -21105,7 +21120,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="409.6">
       <c r="A149" s="1" t="s">
         <v>334</v>
       </c>
@@ -21146,7 +21161,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="409.6">
       <c r="A150" s="1" t="s">
         <v>334</v>
       </c>
@@ -21187,7 +21202,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A151" s="10" t="s">
         <v>334</v>
       </c>
@@ -21231,7 +21246,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A152" s="10" t="s">
         <v>334</v>
       </c>
@@ -21273,7 +21288,7 @@
       </c>
       <c r="N152" s="32"/>
     </row>
-    <row r="153" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A153" s="10" t="s">
         <v>334</v>
       </c>
@@ -21310,12 +21325,12 @@
       <c r="L153" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="M153" s="14" t="s">
+      <c r="M153" s="37" t="s">
         <v>547</v>
       </c>
       <c r="N153" s="32"/>
     </row>
-    <row r="154" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A154" s="10" t="s">
         <v>334</v>
       </c>
@@ -21357,7 +21372,7 @@
       </c>
       <c r="N154" s="32"/>
     </row>
-    <row r="155" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A155" s="10" t="s">
         <v>334</v>
       </c>
@@ -21401,7 +21416,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A156" s="10" t="s">
         <v>334</v>
       </c>
@@ -21443,7 +21458,7 @@
       </c>
       <c r="N156" s="32"/>
     </row>
-    <row r="157" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A157" s="10" t="s">
         <v>334</v>
       </c>
@@ -21485,7 +21500,7 @@
       </c>
       <c r="N157" s="32"/>
     </row>
-    <row r="158" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A158" s="10" t="s">
         <v>334</v>
       </c>
@@ -21527,7 +21542,7 @@
       </c>
       <c r="N158" s="32"/>
     </row>
-    <row r="159" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A159" s="10" t="s">
         <v>334</v>
       </c>
@@ -21569,7 +21584,7 @@
       </c>
       <c r="N159" s="32"/>
     </row>
-    <row r="160" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A160" s="10" t="s">
         <v>334</v>
       </c>
@@ -21613,7 +21628,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A161" s="10" t="s">
         <v>334</v>
       </c>
@@ -21655,7 +21670,7 @@
       </c>
       <c r="N161" s="32"/>
     </row>
-    <row r="162" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A162" s="10" t="s">
         <v>334</v>
       </c>
@@ -21697,7 +21712,7 @@
       </c>
       <c r="N162" s="32"/>
     </row>
-    <row r="163" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A163" s="10" t="s">
         <v>334</v>
       </c>
@@ -21739,7 +21754,7 @@
       </c>
       <c r="N163" s="32"/>
     </row>
-    <row r="164" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A164" s="10" t="s">
         <v>334</v>
       </c>
@@ -21781,7 +21796,7 @@
       </c>
       <c r="N164" s="32"/>
     </row>
-    <row r="165" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A165" s="10" t="s">
         <v>334</v>
       </c>
@@ -21825,7 +21840,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A166" s="10" t="s">
         <v>334</v>
       </c>
@@ -21867,7 +21882,7 @@
       </c>
       <c r="N166" s="32"/>
     </row>
-    <row r="167" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A167" s="10" t="s">
         <v>334</v>
       </c>
@@ -21909,7 +21924,7 @@
       </c>
       <c r="N167" s="32"/>
     </row>
-    <row r="168" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A168" s="10" t="s">
         <v>334</v>
       </c>
@@ -21951,7 +21966,7 @@
       </c>
       <c r="N168" s="32"/>
     </row>
-    <row r="169" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A169" s="10" t="s">
         <v>334</v>
       </c>
@@ -21993,7 +22008,7 @@
       </c>
       <c r="N169" s="32"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>334</v>
       </c>
@@ -22008,7 +22023,7 @@
       </c>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>334</v>
       </c>
@@ -22023,7 +22038,7 @@
       </c>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>334</v>
       </c>
@@ -22038,7 +22053,7 @@
       </c>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="409.6">
       <c r="A173" s="1" t="s">
         <v>607</v>
       </c>
@@ -22082,7 +22097,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="409.6">
       <c r="A174" s="1" t="s">
         <v>607</v>
       </c>
@@ -22123,7 +22138,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="409.6">
       <c r="A175" s="1" t="s">
         <v>607</v>
       </c>
@@ -22164,7 +22179,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="409.6">
       <c r="A176" s="1" t="s">
         <v>607</v>
       </c>
@@ -22205,7 +22220,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="409.6">
       <c r="A177" s="1" t="s">
         <v>607</v>
       </c>
@@ -22249,7 +22264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="409.6">
       <c r="A178" s="1" t="s">
         <v>607</v>
       </c>
@@ -22290,7 +22305,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="409.6">
       <c r="A179" s="1" t="s">
         <v>607</v>
       </c>
@@ -22331,7 +22346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="409.6">
       <c r="A180" s="1" t="s">
         <v>607</v>
       </c>
@@ -22372,7 +22387,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A181" s="10" t="s">
         <v>607</v>
       </c>
@@ -22416,7 +22431,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A182" s="10" t="s">
         <v>607</v>
       </c>
@@ -22458,7 +22473,7 @@
       </c>
       <c r="N182" s="32"/>
     </row>
-    <row r="183" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A183" s="10" t="s">
         <v>607</v>
       </c>
@@ -22500,7 +22515,7 @@
       </c>
       <c r="N183" s="32"/>
     </row>
-    <row r="184" spans="1:14" s="10" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" s="10" customFormat="1" ht="222.95" customHeight="1">
       <c r="A184" s="10" t="s">
         <v>607</v>
       </c>
@@ -22542,7 +22557,7 @@
       </c>
       <c r="N184" s="32"/>
     </row>
-    <row r="185" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A185" s="10" t="s">
         <v>607</v>
       </c>
@@ -22586,7 +22601,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A186" s="10" t="s">
         <v>607</v>
       </c>
@@ -22628,7 +22643,7 @@
       </c>
       <c r="N186" s="32"/>
     </row>
-    <row r="187" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A187" s="10" t="s">
         <v>607</v>
       </c>
@@ -22670,7 +22685,7 @@
       </c>
       <c r="N187" s="32"/>
     </row>
-    <row r="188" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A188" s="10" t="s">
         <v>607</v>
       </c>
@@ -22712,7 +22727,7 @@
       </c>
       <c r="N188" s="32"/>
     </row>
-    <row r="189" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A189" s="10" t="s">
         <v>607</v>
       </c>
@@ -22754,7 +22769,7 @@
       </c>
       <c r="N189" s="32"/>
     </row>
-    <row r="190" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A190" s="10" t="s">
         <v>607</v>
       </c>
@@ -22798,7 +22813,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="191" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A191" s="10" t="s">
         <v>607</v>
       </c>
@@ -22840,7 +22855,7 @@
       </c>
       <c r="N191" s="32"/>
     </row>
-    <row r="192" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A192" s="10" t="s">
         <v>607</v>
       </c>
@@ -22882,7 +22897,7 @@
       </c>
       <c r="N192" s="32"/>
     </row>
-    <row r="193" spans="1:14" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" s="10" customFormat="1" ht="409.6">
       <c r="A193" s="10" t="s">
         <v>607</v>
       </c>
@@ -22924,7 +22939,7 @@
       </c>
       <c r="N193" s="32"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14">
       <c r="A194" s="1" t="s">
         <v>607</v>
       </c>
@@ -22939,7 +22954,7 @@
       </c>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14">
       <c r="A195" s="1" t="s">
         <v>607</v>
       </c>
@@ -22953,7 +22968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14">
       <c r="A196" s="1" t="s">
         <v>607</v>
       </c>
@@ -22967,7 +22982,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14">
       <c r="A197" s="1" t="s">
         <v>607</v>
       </c>
